--- a/Resumen_categoria_combustible.xlsx
+++ b/Resumen_categoria_combustible.xlsx
@@ -417,7 +417,7 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -434,7 +434,7 @@
         <v>100</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -451,7 +451,7 @@
         <v>100</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -468,7 +468,7 @@
         <v>100</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -485,7 +485,7 @@
         <v>100</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -502,7 +502,7 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -519,7 +519,7 @@
         <v>100</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.101016574376837</v>
+        <v>4.880469706369747</v>
       </c>
       <c r="C9">
         <v>1.689495852646034</v>
@@ -536,7 +536,7 @@
         <v>76.14285714285714</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.983755227102789</v>
+        <v>4.97463015902296</v>
       </c>
       <c r="C10">
         <v>1.193778456465985</v>
@@ -553,7 +553,7 @@
         <v>76.85714285714286</v>
       </c>
       <c r="E10">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.255469226045647</v>
+        <v>5.108171423242045</v>
       </c>
       <c r="C11">
         <v>1.272763451648964</v>
@@ -570,7 +570,7 @@
         <v>77.85714285714286</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.609966585553994</v>
+        <v>1.915228483652879</v>
       </c>
       <c r="C12">
         <v>0.6923981964110713</v>
@@ -587,7 +587,7 @@
         <v>78.42857142857143</v>
       </c>
       <c r="E12">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,7 +595,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.146182184482551</v>
+        <v>1.523816550784354</v>
       </c>
       <c r="C13">
         <v>0.2585592777693506</v>
@@ -604,7 +604,7 @@
         <v>77.14285714285714</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2234188318279003</v>
+        <v>0.2913090075373068</v>
       </c>
       <c r="C14">
         <v>0.07773346492232799</v>
@@ -621,7 +621,7 @@
         <v>77.85714285714286</v>
       </c>
       <c r="E14">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.000370328716983</v>
+        <v>10.45644768974172</v>
       </c>
       <c r="C15">
         <v>4.822772732965712</v>
@@ -638,7 +638,7 @@
         <v>75.85714285714286</v>
       </c>
       <c r="E15">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,7 +646,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.24266511902863</v>
+        <v>22.12175779523708</v>
       </c>
       <c r="C16">
         <v>14.58794983130115</v>
@@ -655,7 +655,7 @@
         <v>76.14285714285714</v>
       </c>
       <c r="E16">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.98796375380428</v>
+        <v>21.69682662011025</v>
       </c>
       <c r="C17">
         <v>13.86359388919479</v>
@@ -672,7 +672,7 @@
         <v>76.85714285714286</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.63581816148178</v>
+        <v>22.39635278826326</v>
       </c>
       <c r="C18">
         <v>14.46789299598423</v>
@@ -689,7 +689,7 @@
         <v>77.85714285714286</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,7 +697,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.00547117712013</v>
+        <v>21.24972725589137</v>
       </c>
       <c r="C19">
         <v>14.51966946849259</v>
@@ -706,7 +706,7 @@
         <v>77.14285714285714</v>
       </c>
       <c r="E19">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,7 +714,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.04443338417493</v>
+        <v>21.44486078278677</v>
       </c>
       <c r="C20">
         <v>15.11402813367439</v>
@@ -723,7 +723,7 @@
         <v>77.14285714285714</v>
       </c>
       <c r="E20">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,7 +731,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.64635894078057</v>
+        <v>21.04187478941759</v>
       </c>
       <c r="C21">
         <v>14.62779672637535</v>
@@ -740,7 +740,7 @@
         <v>77.85714285714286</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,7 +748,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.00807408998354</v>
+        <v>25.15429283725157</v>
       </c>
       <c r="C22">
         <v>16.31100407713174</v>
@@ -757,7 +757,7 @@
         <v>75.85714285714286</v>
       </c>
       <c r="E22">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -774,7 +774,7 @@
         <v>100</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -791,7 +791,7 @@
         <v>100</v>
       </c>
       <c r="E24">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -808,7 +808,7 @@
         <v>100</v>
       </c>
       <c r="E25">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -825,7 +825,7 @@
         <v>100</v>
       </c>
       <c r="E26">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
         <v>100</v>
       </c>
       <c r="E27">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -859,7 +859,7 @@
         <v>100</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -876,7 +876,7 @@
         <v>100</v>
       </c>
       <c r="E29">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -893,7 +893,7 @@
         <v>100</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -910,7 +910,7 @@
         <v>100</v>
       </c>
       <c r="E31">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -927,7 +927,7 @@
         <v>100</v>
       </c>
       <c r="E32">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -944,7 +944,7 @@
         <v>100</v>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -961,7 +961,7 @@
         <v>100</v>
       </c>
       <c r="E34">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -978,7 +978,7 @@
         <v>100</v>
       </c>
       <c r="E35">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -995,7 +995,7 @@
         <v>100</v>
       </c>
       <c r="E36">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,7 +1003,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>15.38882303479361</v>
+        <v>16.74828562237866</v>
       </c>
       <c r="C37">
         <v>10.69948013458758</v>
@@ -1012,7 +1012,7 @@
         <v>76</v>
       </c>
       <c r="E37">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,7 +1020,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>15.75810548544084</v>
+        <v>17.36003195795798</v>
       </c>
       <c r="C38">
         <v>10.76125211212295</v>
@@ -1029,7 +1029,7 @@
         <v>76.71428571428571</v>
       </c>
       <c r="E38">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,7 +1037,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>13.69545136899047</v>
+        <v>15.59892745938957</v>
       </c>
       <c r="C39">
         <v>8.320794397431957</v>
@@ -1046,7 +1046,7 @@
         <v>77.85714285714286</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,7 +1054,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>9.249653115782337</v>
+        <v>10.3362151960274</v>
       </c>
       <c r="C40">
         <v>5.50658494998653</v>
@@ -1063,7 +1063,7 @@
         <v>76.85714285714286</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,7 +1071,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6.844408671561529</v>
+        <v>8.013031014568837</v>
       </c>
       <c r="C41">
         <v>3.771295048341898</v>
@@ -1080,7 +1080,7 @@
         <v>77.14285714285714</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6937717191736098</v>
+        <v>0.9009040228297788</v>
       </c>
       <c r="C42">
-        <v>0.1708960540965457</v>
+        <v>0.1907384467648759</v>
       </c>
       <c r="D42">
         <v>77.85714285714286</v>
       </c>
       <c r="E42">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,7 +1105,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>24.72996145104586</v>
+        <v>26.70219326502993</v>
       </c>
       <c r="C43">
         <v>17.87103465608759</v>
@@ -1114,7 +1114,7 @@
         <v>75.71428571428571</v>
       </c>
       <c r="E43">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,7 +1122,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.591982025304797</v>
+        <v>0.6720684387175673</v>
       </c>
       <c r="C44">
         <v>0.3920532292445075</v>
@@ -1131,7 +1131,7 @@
         <v>76.14285714285714</v>
       </c>
       <c r="E44">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,7 +1139,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.3131989118819226</v>
+        <v>0.3620812274965294</v>
       </c>
       <c r="C45">
         <v>0.1596378615351006</v>
@@ -1148,7 +1148,7 @@
         <v>76.85714285714286</v>
       </c>
       <c r="E45">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,7 +1156,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.2704195120113147</v>
+        <v>0.3100388907549466</v>
       </c>
       <c r="C46">
         <v>0.152742441546213</v>
@@ -1165,7 +1165,7 @@
         <v>77.85714285714286</v>
       </c>
       <c r="E46">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,7 +1173,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.06383806421920873</v>
+        <v>0.07602930272915327</v>
       </c>
       <c r="C47">
         <v>0.02406129980540713</v>
@@ -1182,7 +1182,7 @@
         <v>78.42857142857143</v>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,7 +1190,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.176221241466878</v>
+        <v>1.389383760447286</v>
       </c>
       <c r="C48">
         <v>0.678480244168106</v>
@@ -1199,7 +1199,7 @@
         <v>75.85714285714286</v>
       </c>
       <c r="E48">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1216,7 +1216,7 @@
         <v>76.42857142857143</v>
       </c>
       <c r="E49">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1233,7 +1233,7 @@
         <v>76.42857142857143</v>
       </c>
       <c r="E50">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1250,7 +1250,7 @@
         <v>76.14285714285714</v>
       </c>
       <c r="E51">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1267,7 +1267,7 @@
         <v>76.85714285714286</v>
       </c>
       <c r="E52">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1284,7 +1284,7 @@
         <v>77.85714285714286</v>
       </c>
       <c r="E53">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1301,7 +1301,7 @@
         <v>78.42857142857143</v>
       </c>
       <c r="E54">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1318,7 +1318,7 @@
         <v>76.42857142857143</v>
       </c>
       <c r="E55">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1335,7 +1335,7 @@
         <v>76.42857142857143</v>
       </c>
       <c r="E56">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1352,7 +1352,7 @@
         <v>75.85714285714286</v>
       </c>
       <c r="E57">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,7 +1360,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.8071203141232067</v>
+        <v>0.9601820890329845</v>
       </c>
       <c r="C58">
         <v>0.4746858627671427</v>
@@ -1369,7 +1369,7 @@
         <v>76.14285714285714</v>
       </c>
       <c r="E58">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,7 +1377,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.5565576340905419</v>
+        <v>0.666433191848415</v>
       </c>
       <c r="C59">
         <v>0.2729474232178895</v>
@@ -1386,7 +1386,7 @@
         <v>76.85714285714286</v>
       </c>
       <c r="E59">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,7 +1394,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.4925963958135938</v>
+        <v>0.5946461962852181</v>
       </c>
       <c r="C60">
         <v>0.2367963644452771</v>
@@ -1403,7 +1403,7 @@
         <v>77.85714285714286</v>
       </c>
       <c r="E60">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,7 +1411,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.08763763561289019</v>
+        <v>0.1018643678839973</v>
       </c>
       <c r="C61">
         <v>0.03996480126764378</v>
@@ -1420,7 +1420,7 @@
         <v>78.42857142857143</v>
       </c>
       <c r="E61">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,7 +1428,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.1456342183961259</v>
+        <v>0.1709861130900615</v>
       </c>
       <c r="C62">
         <v>0.07157622177361581</v>
@@ -1437,7 +1437,7 @@
         <v>77.14285714285714</v>
       </c>
       <c r="E62">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,7 +1445,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.04382769214102301</v>
+        <v>0.0514798076752094</v>
       </c>
       <c r="C63">
         <v>0.02127615173028606</v>
@@ -1454,7 +1454,7 @@
         <v>77.85714285714286</v>
       </c>
       <c r="E63">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,7 +1462,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.762589738195584</v>
+        <v>2.236386252822452</v>
       </c>
       <c r="C64">
         <v>0.6816083946349661</v>
@@ -1471,7 +1471,7 @@
         <v>75.85714285714286</v>
       </c>
       <c r="E64">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1488,7 +1488,7 @@
         <v>90</v>
       </c>
       <c r="E65">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1505,7 +1505,7 @@
         <v>90</v>
       </c>
       <c r="E66">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1522,7 +1522,7 @@
         <v>90</v>
       </c>
       <c r="E67">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1539,7 +1539,7 @@
         <v>90</v>
       </c>
       <c r="E68">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1556,7 +1556,7 @@
         <v>90</v>
       </c>
       <c r="E69">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1573,7 +1573,7 @@
         <v>90</v>
       </c>
       <c r="E70">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1590,7 +1590,7 @@
         <v>90</v>
       </c>
       <c r="E71">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,7 +1598,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>2.895791586720063</v>
+        <v>3.489301477279305</v>
       </c>
       <c r="C72">
         <v>1.238217074245885</v>
@@ -1607,7 +1607,7 @@
         <v>88.14285714285714</v>
       </c>
       <c r="E72">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,7 +1615,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>2.569688149144087</v>
+        <v>3.172615023423236</v>
       </c>
       <c r="C73">
         <v>0.9510757639381006</v>
@@ -1624,7 +1624,7 @@
         <v>88.71428571428571</v>
       </c>
       <c r="E73">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,7 +1632,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>2.997168685731506</v>
+        <v>3.646216563061894</v>
       </c>
       <c r="C74">
         <v>1.016459303144442</v>
@@ -1641,7 +1641,7 @@
         <v>89.14285714285714</v>
       </c>
       <c r="E74">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,7 +1649,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.613322356211201</v>
+        <v>1.997460431482305</v>
       </c>
       <c r="C75">
         <v>0.6724092980789037</v>
@@ -1658,7 +1658,7 @@
         <v>89.42857142857143</v>
       </c>
       <c r="E75">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,7 +1666,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.286513601751119</v>
+        <v>1.657363583030553</v>
       </c>
       <c r="C76">
         <v>0.3110205976168955</v>
@@ -1675,7 +1675,7 @@
         <v>87.14285714285714</v>
       </c>
       <c r="E76">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,7 +1683,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.3583338338057119</v>
+        <v>0.4628173840149419</v>
       </c>
       <c r="C77">
         <v>0.06763822170632401</v>
@@ -1692,7 +1692,7 @@
         <v>83.57142857142857</v>
       </c>
       <c r="E77">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,7 +1700,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>3.454463244615767</v>
+        <v>4.264047049445504</v>
       </c>
       <c r="C78">
         <v>1.159109259112925</v>
@@ -1709,7 +1709,7 @@
         <v>87.28571428571429</v>
       </c>
       <c r="E78">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>16.64082603089996</v>
+        <v>19.06611145648962</v>
       </c>
       <c r="C79">
         <v>10.62727723875472</v>
@@ -1726,7 +1726,7 @@
         <v>88.14285714285714</v>
       </c>
       <c r="E79">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,7 +1734,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>16.6692040689742</v>
+        <v>18.96548362655787</v>
       </c>
       <c r="C80">
         <v>11.09496184171151</v>
@@ -1743,7 +1743,7 @@
         <v>88.71428571428571</v>
       </c>
       <c r="E80">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,7 +1751,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>18.19077883939856</v>
+        <v>20.79127724589548</v>
       </c>
       <c r="C81">
         <v>11.34535152561937</v>
@@ -1760,7 +1760,7 @@
         <v>89.14285714285714</v>
       </c>
       <c r="E81">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,7 +1768,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>17.17921099333672</v>
+        <v>19.18508433930393</v>
       </c>
       <c r="C82">
         <v>11.66879520237736</v>
@@ -1777,7 +1777,7 @@
         <v>89.42857142857143</v>
       </c>
       <c r="E82">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,7 +1785,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>17.23183568397405</v>
+        <v>19.21764286171303</v>
       </c>
       <c r="C83">
         <v>11.78501258442885</v>
@@ -1794,7 +1794,7 @@
         <v>86.42857142857143</v>
       </c>
       <c r="E83">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,7 +1802,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>16.99212979365123</v>
+        <v>18.98949341544769</v>
       </c>
       <c r="C84">
         <v>11.48376352491404</v>
@@ -1811,7 +1811,7 @@
         <v>87.14285714285714</v>
       </c>
       <c r="E84">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,7 +1819,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>17.72568637523879</v>
+        <v>20.37259316459289</v>
       </c>
       <c r="C85">
         <v>11.31701568300927</v>
@@ -1828,7 +1828,7 @@
         <v>87.28571428571429</v>
       </c>
       <c r="E85">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1845,7 +1845,7 @@
         <v>90</v>
       </c>
       <c r="E86">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1862,7 +1862,7 @@
         <v>90</v>
       </c>
       <c r="E87">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1879,7 +1879,7 @@
         <v>90</v>
       </c>
       <c r="E88">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1896,7 +1896,7 @@
         <v>90</v>
       </c>
       <c r="E89">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1913,7 +1913,7 @@
         <v>90</v>
       </c>
       <c r="E90">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1930,7 +1930,7 @@
         <v>90</v>
       </c>
       <c r="E91">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1947,7 +1947,7 @@
         <v>90</v>
       </c>
       <c r="E92">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1964,7 +1964,7 @@
         <v>90</v>
       </c>
       <c r="E93">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1981,7 +1981,7 @@
         <v>90</v>
       </c>
       <c r="E94">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1998,7 +1998,7 @@
         <v>90</v>
       </c>
       <c r="E95">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2015,7 +2015,7 @@
         <v>90</v>
       </c>
       <c r="E96">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2032,7 +2032,7 @@
         <v>90</v>
       </c>
       <c r="E97">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2049,7 +2049,7 @@
         <v>90</v>
       </c>
       <c r="E98">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2066,7 +2066,7 @@
         <v>90</v>
       </c>
       <c r="E99">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,7 +2074,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>12.63841497335186</v>
+        <v>14.39784204827623</v>
       </c>
       <c r="C100">
         <v>8.16525097736662</v>
@@ -2083,7 +2083,7 @@
         <v>88.14285714285714</v>
       </c>
       <c r="E100">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,7 +2091,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>14.18218009668922</v>
+        <v>16.29239498118113</v>
       </c>
       <c r="C101">
         <v>7.854709204478139</v>
@@ -2100,7 +2100,7 @@
         <v>88.71428571428571</v>
       </c>
       <c r="E101">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2108,7 +2108,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>12.30539604099085</v>
+        <v>14.76470206116672</v>
       </c>
       <c r="C102">
         <v>6.683475705274359</v>
@@ -2117,7 +2117,7 @@
         <v>89.14285714285714</v>
       </c>
       <c r="E102">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2125,7 +2125,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>8.07011237400566</v>
+        <v>9.287857430092661</v>
       </c>
       <c r="C103">
         <v>4.690609592844948</v>
@@ -2134,7 +2134,7 @@
         <v>89.42857142857143</v>
       </c>
       <c r="E103">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2142,7 +2142,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7.209866758786002</v>
+        <v>8.72963515125795</v>
       </c>
       <c r="C104">
         <v>3.358037726742848</v>
@@ -2151,7 +2151,7 @@
         <v>87.85714285714286</v>
       </c>
       <c r="E104">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2159,7 +2159,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.461066514400532</v>
+        <v>1.825633071028614</v>
       </c>
       <c r="C105">
         <v>0.2340731443444772</v>
@@ -2168,7 +2168,7 @@
         <v>87.85714285714286</v>
       </c>
       <c r="E105">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2176,7 +2176,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>16.45444244683193</v>
+        <v>18.41795540064668</v>
       </c>
       <c r="C106">
         <v>11.81708897873426</v>
@@ -2185,7 +2185,7 @@
         <v>87.28571428571429</v>
       </c>
       <c r="E106">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2193,7 +2193,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.5287451178324077</v>
+        <v>0.6269819081407805</v>
       </c>
       <c r="C107">
         <v>0.2711934464286237</v>
@@ -2202,7 +2202,7 @@
         <v>88.14285714285714</v>
       </c>
       <c r="E107">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2210,7 +2210,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.258951930067803</v>
+        <v>0.2987284999341653</v>
       </c>
       <c r="C108">
         <v>0.1371516865283204</v>
@@ -2219,7 +2219,7 @@
         <v>88.71428571428571</v>
       </c>
       <c r="E108">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2227,7 +2227,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.292744669102016</v>
+        <v>0.3447244997193432</v>
       </c>
       <c r="C109">
         <v>0.1237425745775144</v>
@@ -2236,7 +2236,7 @@
         <v>89.14285714285714</v>
       </c>
       <c r="E109">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2244,7 +2244,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.06805414175472826</v>
+        <v>0.07872666363703915</v>
       </c>
       <c r="C110">
         <v>0.02797857517332617</v>
@@ -2253,7 +2253,7 @@
         <v>89.42857142857143</v>
       </c>
       <c r="E110">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2261,7 +2261,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.6737063899589549</v>
+        <v>0.7994789026039296</v>
       </c>
       <c r="C111">
         <v>0.306795484076383</v>
@@ -2270,7 +2270,7 @@
         <v>87.28571428571429</v>
       </c>
       <c r="E111">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2287,7 +2287,7 @@
         <v>87.14285714285714</v>
       </c>
       <c r="E112">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2304,7 +2304,7 @@
         <v>87.14285714285714</v>
       </c>
       <c r="E113">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2321,7 +2321,7 @@
         <v>88.14285714285714</v>
       </c>
       <c r="E114">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2338,7 +2338,7 @@
         <v>88.71428571428571</v>
       </c>
       <c r="E115">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2355,7 +2355,7 @@
         <v>89.14285714285714</v>
       </c>
       <c r="E116">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2372,7 +2372,7 @@
         <v>89.42857142857143</v>
       </c>
       <c r="E117">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2389,7 +2389,7 @@
         <v>87.14285714285714</v>
       </c>
       <c r="E118">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2406,7 +2406,7 @@
         <v>87.14285714285714</v>
       </c>
       <c r="E119">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2423,7 +2423,7 @@
         <v>87.28571428571429</v>
       </c>
       <c r="E120">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2431,7 +2431,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.004376539290265</v>
+        <v>1.231878118099252</v>
       </c>
       <c r="C121">
         <v>0.3540535057525022</v>
@@ -2440,7 +2440,7 @@
         <v>88.14285714285714</v>
       </c>
       <c r="E121">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2448,7 +2448,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.7200958575301651</v>
+        <v>0.8845369819952563</v>
       </c>
       <c r="C122">
         <v>0.2476982621531898</v>
@@ -2457,7 +2457,7 @@
         <v>88.71428571428571</v>
       </c>
       <c r="E122">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2465,7 +2465,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.7005375063890957</v>
+        <v>0.8644983770739582</v>
       </c>
       <c r="C123">
         <v>0.2262197301025839</v>
@@ -2474,7 +2474,7 @@
         <v>89.14285714285714</v>
       </c>
       <c r="E123">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2482,7 +2482,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.09830613676736473</v>
+        <v>0.1154429376990866</v>
       </c>
       <c r="C124">
         <v>0.04155751907034078</v>
@@ -2491,7 +2491,7 @@
         <v>89.42857142857143</v>
       </c>
       <c r="E124">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2499,7 +2499,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.1989671636450923</v>
+        <v>0.2428054635148366</v>
       </c>
       <c r="C125">
         <v>0.07158225009438557</v>
@@ -2508,7 +2508,7 @@
         <v>85.71428571428571</v>
       </c>
       <c r="E125">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2516,7 +2516,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.05959246824746939</v>
+        <v>0.07278743286800307</v>
       </c>
       <c r="C126">
         <v>0.02112704292327989</v>
@@ -2525,7 +2525,7 @@
         <v>89.28571428571429</v>
       </c>
       <c r="E126">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2533,7 +2533,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.067330208449061</v>
+        <v>1.334876461593055</v>
       </c>
       <c r="C127">
         <v>0.2844086510851849</v>
@@ -2542,7 +2542,7 @@
         <v>87.28571428571429</v>
       </c>
       <c r="E127">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2559,7 +2559,7 @@
         <v>100</v>
       </c>
       <c r="E128">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2576,7 +2576,7 @@
         <v>100</v>
       </c>
       <c r="E129">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2593,7 +2593,7 @@
         <v>100</v>
       </c>
       <c r="E130">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2610,7 +2610,7 @@
         <v>100</v>
       </c>
       <c r="E131">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2627,7 +2627,7 @@
         <v>100</v>
       </c>
       <c r="E132">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2644,7 +2644,7 @@
         <v>100</v>
       </c>
       <c r="E133">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2661,7 +2661,7 @@
         <v>100</v>
       </c>
       <c r="E134">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2669,7 +2669,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>2.670821670234414</v>
+        <v>3.166394213966009</v>
       </c>
       <c r="C135">
         <v>1.213450758510486</v>
@@ -2678,7 +2678,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E135">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2686,7 +2686,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>2.331493820474827</v>
+        <v>2.925090260218162</v>
       </c>
       <c r="C136">
         <v>1.019605986147342</v>
@@ -2695,7 +2695,7 @@
         <v>80.57142857142857</v>
       </c>
       <c r="E136">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2703,7 +2703,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>2.518766322344203</v>
+        <v>3.150467803385261</v>
       </c>
       <c r="C137">
         <v>0.97977347293187</v>
@@ -2712,7 +2712,7 @@
         <v>81.85714285714286</v>
       </c>
       <c r="E137">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2720,7 +2720,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.248567298668244</v>
+        <v>1.480862132311821</v>
       </c>
       <c r="C138">
         <v>0.6328415660517736</v>
@@ -2729,7 +2729,7 @@
         <v>82.57142857142857</v>
       </c>
       <c r="E138">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2737,7 +2737,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.9491815016636048</v>
+        <v>1.225304566032836</v>
       </c>
       <c r="C139">
         <v>0.2236491117174485</v>
@@ -2746,7 +2746,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E139">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2754,7 +2754,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.2065000844610624</v>
+        <v>0.2639983914098492</v>
       </c>
       <c r="C140">
         <v>0.06308703135028033</v>
@@ -2763,7 +2763,7 @@
         <v>82.14285714285714</v>
       </c>
       <c r="E140">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2771,7 +2771,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>5.844866288237923</v>
+        <v>6.963869217400152</v>
       </c>
       <c r="C141">
         <v>3.382739772894663</v>
@@ -2780,7 +2780,7 @@
         <v>80.42857142857143</v>
       </c>
       <c r="E141">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2788,7 +2788,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>15.41675774636729</v>
+        <v>17.00118907817279</v>
       </c>
       <c r="C142">
         <v>10.93683240976982</v>
@@ -2797,7 +2797,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E142">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2805,7 +2805,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>15.01056107846879</v>
+        <v>16.46948774572544</v>
       </c>
       <c r="C143">
         <v>10.45096567879702</v>
@@ -2814,7 +2814,7 @@
         <v>80.57142857142857</v>
       </c>
       <c r="E143">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2822,7 +2822,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>15.78233466612233</v>
+        <v>17.3482177214432</v>
       </c>
       <c r="C144">
         <v>11.02982845819447</v>
@@ -2831,7 +2831,7 @@
         <v>81.85714285714286</v>
       </c>
       <c r="E144">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2839,7 +2839,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>14.93959427195569</v>
+        <v>16.07402395267791</v>
       </c>
       <c r="C145">
         <v>11.27525582973675</v>
@@ -2848,7 +2848,7 @@
         <v>81.28571428571429</v>
       </c>
       <c r="E145">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2856,7 +2856,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>14.87803632870719</v>
+        <v>16.03421455608719</v>
       </c>
       <c r="C146">
         <v>11.51136409708188</v>
@@ -2865,7 +2865,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E146">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2873,7 +2873,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>14.66044044121031</v>
+        <v>15.82959039056469</v>
       </c>
       <c r="C147">
         <v>11.20701410341798</v>
@@ -2882,7 +2882,7 @@
         <v>82.14285714285714</v>
       </c>
       <c r="E147">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2890,7 +2890,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>17.59705497766075</v>
+        <v>19.64530569739942</v>
       </c>
       <c r="C148">
         <v>12.17040480740943</v>
@@ -2899,7 +2899,7 @@
         <v>80.42857142857143</v>
       </c>
       <c r="E148">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2916,7 +2916,7 @@
         <v>100</v>
       </c>
       <c r="E149">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2933,7 +2933,7 @@
         <v>100</v>
       </c>
       <c r="E150">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2950,7 +2950,7 @@
         <v>100</v>
       </c>
       <c r="E151">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2967,7 +2967,7 @@
         <v>100</v>
       </c>
       <c r="E152">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2984,7 +2984,7 @@
         <v>100</v>
       </c>
       <c r="E153">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3001,7 +3001,7 @@
         <v>100</v>
       </c>
       <c r="E154">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3018,7 +3018,7 @@
         <v>100</v>
       </c>
       <c r="E155">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3035,7 +3035,7 @@
         <v>100</v>
       </c>
       <c r="E156">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3052,7 +3052,7 @@
         <v>100</v>
       </c>
       <c r="E157">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3069,7 +3069,7 @@
         <v>100</v>
       </c>
       <c r="E158">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3086,7 +3086,7 @@
         <v>100</v>
       </c>
       <c r="E159">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3103,7 +3103,7 @@
         <v>100</v>
       </c>
       <c r="E160">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3120,7 +3120,7 @@
         <v>100</v>
       </c>
       <c r="E161">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3137,7 +3137,7 @@
         <v>100</v>
       </c>
       <c r="E162">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3145,7 +3145,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>11.75709433856605</v>
+        <v>12.93003711173425</v>
       </c>
       <c r="C163">
         <v>8.020513041888904</v>
@@ -3154,7 +3154,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E163">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3162,7 +3162,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>12.26898545761413</v>
+        <v>13.72605477289462</v>
       </c>
       <c r="C164">
         <v>8.14727962668238</v>
@@ -3171,7 +3171,7 @@
         <v>80.57142857142857</v>
       </c>
       <c r="E164">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3179,7 +3179,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>10.5910647116038</v>
+        <v>12.25621181907514</v>
       </c>
       <c r="C165">
         <v>6.208301646738669</v>
@@ -3188,7 +3188,7 @@
         <v>81.85714285714286</v>
       </c>
       <c r="E165">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3196,7 +3196,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6.893090767178867</v>
+        <v>7.664491395144025</v>
       </c>
       <c r="C166">
         <v>4.157853937332705</v>
@@ -3205,7 +3205,7 @@
         <v>82</v>
       </c>
       <c r="E166">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3213,7 +3213,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>5.467208078803255</v>
+        <v>6.369265032229955</v>
       </c>
       <c r="C167">
         <v>2.977866428471931</v>
@@ -3222,7 +3222,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E167">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3230,7 +3230,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.7424940706374495</v>
+        <v>0.9064678661691986</v>
       </c>
       <c r="C168">
         <v>0.2491141764153885</v>
@@ -3239,7 +3239,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E168">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3247,7 +3247,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>18.87811404171427</v>
+        <v>20.64237610712579</v>
       </c>
       <c r="C169">
         <v>13.09552190759033</v>
@@ -3256,7 +3256,7 @@
         <v>80.42857142857143</v>
       </c>
       <c r="E169">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3264,7 +3264,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.4456164580439818</v>
+        <v>0.5109507695927203</v>
       </c>
       <c r="C170">
         <v>0.2844052773735787</v>
@@ -3273,7 +3273,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E170">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3281,7 +3281,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.223260391869624</v>
+        <v>0.2572938261522325</v>
       </c>
       <c r="C171">
         <v>0.1323775709632268</v>
@@ -3290,7 +3290,7 @@
         <v>80.57142857142857</v>
       </c>
       <c r="E171">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3298,7 +3298,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.2120562695227604</v>
+        <v>0.2444927261319016</v>
       </c>
       <c r="C172">
         <v>0.1170517499427852</v>
@@ -3307,7 +3307,7 @@
         <v>81.85714285714286</v>
       </c>
       <c r="E172">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3315,7 +3315,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.05317782960986327</v>
+        <v>0.06136905499198778</v>
       </c>
       <c r="C173">
         <v>0.02165883488908745</v>
@@ -3324,7 +3324,7 @@
         <v>82.57142857142857</v>
       </c>
       <c r="E173">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3332,7 +3332,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.8245304269115505</v>
+        <v>0.9894305540120187</v>
       </c>
       <c r="C174">
         <v>0.4665811000828654</v>
@@ -3341,7 +3341,7 @@
         <v>80.42857142857143</v>
       </c>
       <c r="E174">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3358,7 +3358,7 @@
         <v>80</v>
       </c>
       <c r="E175">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3375,7 +3375,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E176">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3392,7 +3392,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E177">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3409,7 +3409,7 @@
         <v>80.57142857142857</v>
       </c>
       <c r="E178">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3426,7 +3426,7 @@
         <v>81.85714285714286</v>
       </c>
       <c r="E179">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3443,7 +3443,7 @@
         <v>82.57142857142857</v>
       </c>
       <c r="E180">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3460,7 +3460,7 @@
         <v>80</v>
       </c>
       <c r="E181">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3477,7 +3477,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E182">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3494,7 +3494,7 @@
         <v>80.42857142857143</v>
       </c>
       <c r="E183">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3502,7 +3502,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.7248917733011619</v>
+        <v>0.8785179945213557</v>
       </c>
       <c r="C184">
         <v>0.3570721896671861</v>
@@ -3511,7 +3511,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E184">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3519,7 +3519,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.4964705474698676</v>
+        <v>0.6088035467077414</v>
       </c>
       <c r="C185">
         <v>0.2192148789434379</v>
@@ -3528,7 +3528,7 @@
         <v>80.57142857142857</v>
       </c>
       <c r="E185">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3536,7 +3536,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.455039527425965</v>
+        <v>0.5539374831574728</v>
       </c>
       <c r="C186">
         <v>0.1930591938419872</v>
@@ -3545,7 +3545,7 @@
         <v>81.85714285714286</v>
       </c>
       <c r="E186">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3553,7 +3553,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.07261521206454469</v>
+        <v>0.08339332090366024</v>
       </c>
       <c r="C187">
         <v>0.03543056302839855</v>
@@ -3562,7 +3562,7 @@
         <v>82.57142857142857</v>
       </c>
       <c r="E187">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3570,7 +3570,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.1287909789050082</v>
+        <v>0.1516800484847049</v>
       </c>
       <c r="C188">
         <v>0.06201936450770064</v>
@@ -3579,7 +3579,7 @@
         <v>80.71428571428571</v>
       </c>
       <c r="E188">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3587,7 +3587,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.03866317972224927</v>
+        <v>0.0455261195111208</v>
       </c>
       <c r="C189">
         <v>0.01817631037205943</v>
@@ -3596,7 +3596,7 @@
         <v>82.14285714285714</v>
       </c>
       <c r="E189">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3604,7 +3604,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.688781708582737</v>
+        <v>2.163642540537304</v>
       </c>
       <c r="C190">
         <v>0.5912160697188061</v>
@@ -3613,7 +3613,7 @@
         <v>80.42857142857143</v>
       </c>
       <c r="E190">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3630,7 +3630,7 @@
         <v>90</v>
       </c>
       <c r="E191">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3647,7 +3647,7 @@
         <v>90</v>
       </c>
       <c r="E192">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3664,7 +3664,7 @@
         <v>90</v>
       </c>
       <c r="E193">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3681,7 +3681,7 @@
         <v>90</v>
       </c>
       <c r="E194">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3698,7 +3698,7 @@
         <v>90</v>
       </c>
       <c r="E195">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3715,7 +3715,7 @@
         <v>90</v>
       </c>
       <c r="E196">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3732,7 +3732,7 @@
         <v>90</v>
       </c>
       <c r="E197">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3740,7 +3740,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.296394916105698</v>
+        <v>1.501780360271741</v>
       </c>
       <c r="C198">
         <v>0.7733567899613482</v>
@@ -3749,7 +3749,7 @@
         <v>81.28571428571429</v>
       </c>
       <c r="E198">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3757,7 +3757,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.041401494282713</v>
+        <v>1.210777639512714</v>
       </c>
       <c r="C199">
         <v>0.5319473950360973</v>
@@ -3766,7 +3766,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="E199">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3774,7 +3774,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.256696882964824</v>
+        <v>1.495055422115861</v>
       </c>
       <c r="C200">
         <v>0.5543977668959971</v>
@@ -3783,7 +3783,7 @@
         <v>82.76190476190476</v>
       </c>
       <c r="E200">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3791,7 +3791,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.6266565390160207</v>
+        <v>0.7370429638532969</v>
       </c>
       <c r="C201">
         <v>0.3584209224806981</v>
@@ -3800,7 +3800,7 @@
         <v>83.0952380952381</v>
       </c>
       <c r="E201">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3808,7 +3808,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.4282883462164648</v>
+        <v>0.5209718032467349</v>
       </c>
       <c r="C202">
         <v>0.1480972242657227</v>
@@ -3817,7 +3817,7 @@
         <v>82.14285714285714</v>
       </c>
       <c r="E202">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3825,7 +3825,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.1074701025141902</v>
+        <v>0.1313310801124891</v>
       </c>
       <c r="C203">
         <v>0.03632996746585239</v>
@@ -3834,7 +3834,7 @@
         <v>81.42857142857143</v>
       </c>
       <c r="E203">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3842,7 +3842,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>2.951846076360671</v>
+        <v>3.437744992303342</v>
       </c>
       <c r="C204">
         <v>2.084152257104678</v>
@@ -3851,7 +3851,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="E204">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3859,7 +3859,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>8.212241130911023</v>
+        <v>9.092829808120511</v>
       </c>
       <c r="C205">
         <v>6.680117440717726</v>
@@ -3868,7 +3868,7 @@
         <v>81.28571428571429</v>
       </c>
       <c r="E205">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3876,7 +3876,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7.875922201985492</v>
+        <v>8.655147598335438</v>
       </c>
       <c r="C206">
         <v>6.700068489387772</v>
@@ -3885,7 +3885,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="E206">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3893,7 +3893,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>8.346426517516235</v>
+        <v>9.187901023513627</v>
       </c>
       <c r="C207">
         <v>6.801486112661145</v>
@@ -3902,7 +3902,7 @@
         <v>82.76190476190476</v>
       </c>
       <c r="E207">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3910,7 +3910,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7.984715010247664</v>
+        <v>8.606497223060805</v>
       </c>
       <c r="C208">
         <v>7.030982330073287</v>
@@ -3919,7 +3919,7 @@
         <v>83.0952380952381</v>
       </c>
       <c r="E208">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3927,7 +3927,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7.982219081766337</v>
+        <v>8.639814191753246</v>
       </c>
       <c r="C209">
         <v>7.069841766239223</v>
@@ -3936,7 +3936,7 @@
         <v>81.19047619047619</v>
       </c>
       <c r="E209">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3944,7 +3944,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7.86192785200154</v>
+        <v>8.530799370841807</v>
       </c>
       <c r="C210">
         <v>6.884182652792108</v>
@@ -3953,7 +3953,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="E210">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3961,7 +3961,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>9.416853361941456</v>
+        <v>10.56790962750446</v>
       </c>
       <c r="C211">
         <v>7.333978305158316</v>
@@ -3970,7 +3970,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="E211">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3987,7 +3987,7 @@
         <v>90</v>
       </c>
       <c r="E212">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4004,7 +4004,7 @@
         <v>90</v>
       </c>
       <c r="E213">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4021,7 +4021,7 @@
         <v>90</v>
       </c>
       <c r="E214">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4038,7 +4038,7 @@
         <v>90</v>
       </c>
       <c r="E215">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4055,7 +4055,7 @@
         <v>90</v>
       </c>
       <c r="E216">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4072,7 +4072,7 @@
         <v>90</v>
       </c>
       <c r="E217">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4089,7 +4089,7 @@
         <v>90</v>
       </c>
       <c r="E218">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4106,7 +4106,7 @@
         <v>90</v>
       </c>
       <c r="E219">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4123,7 +4123,7 @@
         <v>90</v>
       </c>
       <c r="E220">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4140,7 +4140,7 @@
         <v>90</v>
       </c>
       <c r="E221">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4157,7 +4157,7 @@
         <v>90</v>
       </c>
       <c r="E222">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4174,7 +4174,7 @@
         <v>90</v>
       </c>
       <c r="E223">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4191,7 +4191,7 @@
         <v>90</v>
       </c>
       <c r="E224">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4208,7 +4208,7 @@
         <v>90</v>
       </c>
       <c r="E225">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4216,7 +4216,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>5.861506815377071</v>
+        <v>6.392189914771582</v>
       </c>
       <c r="C226">
         <v>4.866499878175722</v>
@@ -4225,7 +4225,7 @@
         <v>81.28571428571429</v>
       </c>
       <c r="E226">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4233,7 +4233,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>6.25222831381931</v>
+        <v>6.887578668473897</v>
       </c>
       <c r="C227">
         <v>4.796058288039426</v>
@@ -4242,7 +4242,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="E227">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4250,7 +4250,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>4.986293674506032</v>
+        <v>5.631355657254492</v>
       </c>
       <c r="C228">
         <v>3.749891312267015</v>
@@ -4259,7 +4259,7 @@
         <v>82.76190476190476</v>
       </c>
       <c r="E228">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4267,7 +4267,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>3.391024415013579</v>
+        <v>3.71010003682229</v>
       </c>
       <c r="C229">
         <v>2.582540499420824</v>
@@ -4276,7 +4276,7 @@
         <v>83.0952380952381</v>
       </c>
       <c r="E229">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4284,7 +4284,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>2.823239124816586</v>
+        <v>3.215795436958165</v>
       </c>
       <c r="C230">
         <v>1.752426888994298</v>
@@ -4293,7 +4293,7 @@
         <v>82.14285714285714</v>
       </c>
       <c r="E230">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4301,7 +4301,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.5626092555391892</v>
+        <v>0.6993760623702693</v>
       </c>
       <c r="C231">
         <v>0.1331596146539262</v>
@@ -4310,7 +4310,7 @@
         <v>81.19047619047619</v>
       </c>
       <c r="E231">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4318,7 +4318,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>9.337815116281991</v>
+        <v>10.16599626036161</v>
       </c>
       <c r="C232">
         <v>7.781926888886831</v>
@@ -4327,7 +4327,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="E232">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4335,7 +4335,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.2446018037215976</v>
+        <v>0.2825175531602515</v>
       </c>
       <c r="C233">
         <v>0.1625049080823667</v>
@@ -4344,7 +4344,7 @@
         <v>81.28571428571429</v>
       </c>
       <c r="E233">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4352,7 +4352,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.1152524057937977</v>
+        <v>0.1280686459855826</v>
       </c>
       <c r="C234">
         <v>0.07941338664862559</v>
@@ -4361,7 +4361,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="E234">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4369,7 +4369,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1213572194639318</v>
+        <v>0.1404760180649377</v>
       </c>
       <c r="C235">
         <v>0.06560246662293134</v>
@@ -4378,7 +4378,7 @@
         <v>82.76190476190476</v>
       </c>
       <c r="E235">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4386,7 +4386,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.02780047683962662</v>
+        <v>0.03101197647835655</v>
       </c>
       <c r="C236">
         <v>0.01391742567314987</v>
@@ -4395,7 +4395,7 @@
         <v>83.0952380952381</v>
       </c>
       <c r="E236">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4403,7 +4403,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.4358422742461837</v>
+        <v>0.5103746772766633</v>
       </c>
       <c r="C237">
         <v>0.2940900420327385</v>
@@ -4412,7 +4412,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="E237">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4429,7 +4429,7 @@
         <v>80</v>
       </c>
       <c r="E238">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4446,7 +4446,7 @@
         <v>79.76190476190476</v>
       </c>
       <c r="E239">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4463,7 +4463,7 @@
         <v>81.28571428571429</v>
       </c>
       <c r="E240">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4480,7 +4480,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="E241">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4497,7 +4497,7 @@
         <v>82.76190476190476</v>
       </c>
       <c r="E242">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4514,7 +4514,7 @@
         <v>83.0952380952381</v>
       </c>
       <c r="E243">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4531,7 +4531,7 @@
         <v>80</v>
       </c>
       <c r="E244">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4548,7 +4548,7 @@
         <v>79.76190476190476</v>
       </c>
       <c r="E245">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4565,7 +4565,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="E246">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4573,7 +4573,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.4266851457154278</v>
+        <v>0.5116456693987241</v>
       </c>
       <c r="C247">
         <v>0.2002303035389248</v>
@@ -4582,7 +4582,7 @@
         <v>81.28571428571429</v>
       </c>
       <c r="E247">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4590,7 +4590,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.2904602490068101</v>
+        <v>0.3489547149907046</v>
       </c>
       <c r="C248">
         <v>0.1316634505366221</v>
@@ -4599,7 +4599,7 @@
         <v>82.33333333333333</v>
       </c>
       <c r="E248">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4607,7 +4607,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.2682870116083707</v>
+        <v>0.3230097836023348</v>
       </c>
       <c r="C249">
         <v>0.1113246041063311</v>
@@ -4616,7 +4616,7 @@
         <v>82.76190476190476</v>
       </c>
       <c r="E249">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4624,7 +4624,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.0411179325237126</v>
+        <v>0.04706230350117311</v>
       </c>
       <c r="C250">
         <v>0.02093405475238454</v>
@@ -4633,7 +4633,7 @@
         <v>83.0952380952381</v>
       </c>
       <c r="E250">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4641,7 +4641,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.07689295858336313</v>
+        <v>0.09088759777763904</v>
       </c>
       <c r="C251">
         <v>0.03570567148804201</v>
@@ -4650,7 +4650,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="E251">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4658,7 +4658,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.0231278586620858</v>
+        <v>0.02733783999094416</v>
       </c>
       <c r="C252">
         <v>0.01076886928891924</v>
@@ -4667,7 +4667,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="E252">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4675,7 +4675,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1.257101769229672</v>
+        <v>1.55238556683842</v>
       </c>
       <c r="C253">
         <v>0.4132857152850373</v>
@@ -4684,7 +4684,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="E253">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4701,7 +4701,7 @@
         <v>90</v>
       </c>
       <c r="E254">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4718,7 +4718,7 @@
         <v>90</v>
       </c>
       <c r="E255">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4735,7 +4735,7 @@
         <v>90</v>
       </c>
       <c r="E256">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4752,7 +4752,7 @@
         <v>90</v>
       </c>
       <c r="E257">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4769,7 +4769,7 @@
         <v>90</v>
       </c>
       <c r="E258">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4786,7 +4786,7 @@
         <v>90</v>
       </c>
       <c r="E259">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4803,7 +4803,7 @@
         <v>90</v>
       </c>
       <c r="E260">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4811,7 +4811,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>2.54842764328869</v>
+        <v>2.971605094108507</v>
       </c>
       <c r="C261">
         <v>1.334426023657232</v>
@@ -4820,7 +4820,7 @@
         <v>82.04761904761905</v>
       </c>
       <c r="E261">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4828,7 +4828,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>2.039868210034709</v>
+        <v>2.361316494615753</v>
       </c>
       <c r="C262">
         <v>1.011232907288827</v>
@@ -4837,7 +4837,7 @@
         <v>82.95238095238095</v>
       </c>
       <c r="E262">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4845,7 +4845,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>2.449136576332603</v>
+        <v>2.921631065175192</v>
       </c>
       <c r="C263">
         <v>1.047876876282164</v>
@@ -4854,7 +4854,7 @@
         <v>83.14285714285714</v>
       </c>
       <c r="E263">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4862,7 +4862,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1.230156937018208</v>
+        <v>1.450784540080505</v>
       </c>
       <c r="C264">
         <v>0.6166577401844758</v>
@@ -4871,7 +4871,7 @@
         <v>82.9047619047619</v>
       </c>
       <c r="E264">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4879,7 +4879,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.8365497163373321</v>
+        <v>1.018534337918945</v>
       </c>
       <c r="C265">
         <v>0.2734744309130023</v>
@@ -4888,7 +4888,7 @@
         <v>81.42857142857143</v>
       </c>
       <c r="E265">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4896,7 +4896,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.196101726395963</v>
+        <v>0.2400785793519869</v>
       </c>
       <c r="C266">
         <v>0.06464684735569004</v>
@@ -4905,7 +4905,7 @@
         <v>81.19047619047619</v>
       </c>
       <c r="E266">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4913,7 +4913,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>3.656436803781632</v>
+        <v>4.360584450129581</v>
       </c>
       <c r="C267">
         <v>1.94034977133883</v>
@@ -4922,7 +4922,7 @@
         <v>81.61904761904762</v>
       </c>
       <c r="E267">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4930,7 +4930,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>15.75740686243556</v>
+        <v>17.51574110923141</v>
       </c>
       <c r="C268">
         <v>11.64103243493562</v>
@@ -4939,7 +4939,7 @@
         <v>82.04761904761905</v>
       </c>
       <c r="E268">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4947,7 +4947,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>15.27173323965475</v>
+        <v>16.85030319534984</v>
       </c>
       <c r="C269">
         <v>11.65389524577365</v>
@@ -4956,7 +4956,7 @@
         <v>82.95238095238095</v>
       </c>
       <c r="E269">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4964,7 +4964,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>16.0097829769122</v>
+        <v>17.71555771957306</v>
       </c>
       <c r="C270">
         <v>11.81681806640093</v>
@@ -4973,7 +4973,7 @@
         <v>83.14285714285714</v>
       </c>
       <c r="E270">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4981,7 +4981,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>15.24579307402074</v>
+        <v>16.55469906350418</v>
       </c>
       <c r="C271">
         <v>12.01537346832854</v>
@@ -4990,7 +4990,7 @@
         <v>83.42857142857143</v>
       </c>
       <c r="E271">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -4998,7 +4998,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>15.33936379833782</v>
+        <v>16.7927857499134</v>
       </c>
       <c r="C272">
         <v>11.98286405079373</v>
@@ -5007,7 +5007,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="E272">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5015,7 +5015,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>15.02737539151096</v>
+        <v>16.48166373249381</v>
       </c>
       <c r="C273">
         <v>11.66838592265603</v>
@@ -5024,7 +5024,7 @@
         <v>81.66666666666667</v>
       </c>
       <c r="E273">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5032,7 +5032,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>18.183735988825</v>
+        <v>20.43747164020753</v>
       </c>
       <c r="C274">
         <v>13.09749238162678</v>
@@ -5041,7 +5041,7 @@
         <v>81.61904761904762</v>
       </c>
       <c r="E274">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5058,7 +5058,7 @@
         <v>90</v>
       </c>
       <c r="E275">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5075,7 +5075,7 @@
         <v>90</v>
       </c>
       <c r="E276">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5092,7 +5092,7 @@
         <v>90</v>
       </c>
       <c r="E277">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5109,7 +5109,7 @@
         <v>90</v>
       </c>
       <c r="E278">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5126,7 +5126,7 @@
         <v>90</v>
       </c>
       <c r="E279">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5143,7 +5143,7 @@
         <v>90</v>
       </c>
       <c r="E280">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5160,7 +5160,7 @@
         <v>90</v>
       </c>
       <c r="E281">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5177,7 +5177,7 @@
         <v>90</v>
       </c>
       <c r="E282">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5194,7 +5194,7 @@
         <v>90</v>
       </c>
       <c r="E283">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5211,7 +5211,7 @@
         <v>90</v>
       </c>
       <c r="E284">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5228,7 +5228,7 @@
         <v>90</v>
       </c>
       <c r="E285">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5245,7 +5245,7 @@
         <v>90</v>
       </c>
       <c r="E286">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5262,7 +5262,7 @@
         <v>90</v>
       </c>
       <c r="E287">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5279,7 +5279,7 @@
         <v>90</v>
       </c>
       <c r="E288">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5287,7 +5287,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>11.86495707486296</v>
+        <v>12.96562622007236</v>
       </c>
       <c r="C289">
         <v>8.829685285769536</v>
@@ -5296,7 +5296,7 @@
         <v>82.04761904761905</v>
       </c>
       <c r="E289">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5304,7 +5304,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>12.5871004524056</v>
+        <v>13.8643516227847</v>
       </c>
       <c r="C290">
         <v>8.725646174162065</v>
@@ -5313,7 +5313,7 @@
         <v>82.95238095238095</v>
       </c>
       <c r="E290">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5321,7 +5321,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>10.07444930196605</v>
+        <v>11.26380418386721</v>
       </c>
       <c r="C291">
         <v>6.854452459291984</v>
@@ -5330,7 +5330,7 @@
         <v>83.14285714285714</v>
       </c>
       <c r="E291">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5338,7 +5338,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>6.805532234238906</v>
+        <v>7.466811085987603</v>
       </c>
       <c r="C292">
         <v>4.693715188828552</v>
@@ -5347,7 +5347,7 @@
         <v>83.47619047619048</v>
       </c>
       <c r="E292">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5355,7 +5355,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>5.738485668895568</v>
+        <v>6.589304255365265</v>
       </c>
       <c r="C293">
         <v>3.218377711208293</v>
@@ -5364,7 +5364,7 @@
         <v>81.42857142857143</v>
       </c>
       <c r="E293">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5372,7 +5372,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>1.055012024264689</v>
+        <v>1.323830555245688</v>
       </c>
       <c r="C294">
         <v>0.2217123905187744</v>
@@ -5381,7 +5381,7 @@
         <v>81.66666666666667</v>
       </c>
       <c r="E294">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5389,7 +5389,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>17.69394839392272</v>
+        <v>19.21818068226358</v>
       </c>
       <c r="C295">
         <v>13.798028249696</v>
@@ -5398,7 +5398,7 @@
         <v>81.61904761904762</v>
       </c>
       <c r="E295">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5406,7 +5406,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.4949593363709897</v>
+        <v>0.5789955608867511</v>
       </c>
       <c r="C296">
         <v>0.2980298643615751</v>
@@ -5415,7 +5415,7 @@
         <v>82.04761904761905</v>
       </c>
       <c r="E296">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5423,7 +5423,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2323541515891768</v>
+        <v>0.2604297323300796</v>
       </c>
       <c r="C297">
         <v>0.1459729159926908</v>
@@ -5432,7 +5432,7 @@
         <v>82.95238095238095</v>
       </c>
       <c r="E297">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5440,7 +5440,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.243966499148996</v>
+        <v>0.2865847369991428</v>
       </c>
       <c r="C298">
         <v>0.1272179866294593</v>
@@ -5449,7 +5449,7 @@
         <v>83.14285714285714</v>
       </c>
       <c r="E298">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5457,7 +5457,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.05483946525368845</v>
+        <v>0.06161674832732814</v>
       </c>
       <c r="C299">
         <v>0.02578261383790409</v>
@@ -5466,7 +5466,7 @@
         <v>83.52380952380952</v>
       </c>
       <c r="E299">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5474,7 +5474,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.6649702201929818</v>
+        <v>0.7758451702744983</v>
       </c>
       <c r="C300">
         <v>0.3871844876302162</v>
@@ -5483,7 +5483,7 @@
         <v>81.61904761904762</v>
       </c>
       <c r="E300">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5500,7 +5500,7 @@
         <v>80.23809523809524</v>
       </c>
       <c r="E301">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5517,7 +5517,7 @@
         <v>80</v>
       </c>
       <c r="E302">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5534,7 +5534,7 @@
         <v>82.04761904761905</v>
       </c>
       <c r="E303">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5551,7 +5551,7 @@
         <v>82.95238095238095</v>
       </c>
       <c r="E304">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5568,7 +5568,7 @@
         <v>83.14285714285714</v>
       </c>
       <c r="E305">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5585,7 +5585,7 @@
         <v>83.52380952380952</v>
       </c>
       <c r="E306">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5602,7 +5602,7 @@
         <v>80.23809523809524</v>
       </c>
       <c r="E307">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5619,7 +5619,7 @@
         <v>80</v>
       </c>
       <c r="E308">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5636,7 +5636,7 @@
         <v>81.61904761904762</v>
       </c>
       <c r="E309">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5644,7 +5644,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.8517821427663959</v>
+        <v>1.035324777735845</v>
       </c>
       <c r="C310">
         <v>0.373831864039533</v>
@@ -5653,7 +5653,7 @@
         <v>82.04761904761905</v>
       </c>
       <c r="E310">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5661,7 +5661,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.5788254074335766</v>
+        <v>0.7033699775926326</v>
       </c>
       <c r="C311">
         <v>0.2422391976734875</v>
@@ -5670,7 +5670,7 @@
         <v>82.95238095238095</v>
       </c>
       <c r="E311">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5678,7 +5678,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.5334700984787707</v>
+        <v>0.6529245235090816</v>
       </c>
       <c r="C312">
         <v>0.2107132972029903</v>
@@ -5687,7 +5687,7 @@
         <v>83.14285714285714</v>
       </c>
       <c r="E312">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5695,7 +5695,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.08064501476725228</v>
+        <v>0.09418384729874449</v>
       </c>
       <c r="C313">
         <v>0.03953215967672142</v>
@@ -5704,7 +5704,7 @@
         <v>83.52380952380952</v>
       </c>
       <c r="E313">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5712,7 +5712,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.1554258068017123</v>
+        <v>0.1868319195971749</v>
       </c>
       <c r="C314">
         <v>0.06533940714348851</v>
@@ -5721,7 +5721,7 @@
         <v>80.47619047619048</v>
       </c>
       <c r="E314">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5729,7 +5729,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.04660593737573333</v>
+        <v>0.05601755955032965</v>
       </c>
       <c r="C315">
         <v>0.01984850248960702</v>
@@ -5738,7 +5738,7 @@
         <v>80.95238095238095</v>
       </c>
       <c r="E315">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5746,7 +5746,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>1.243933989440819</v>
+        <v>1.554084155399692</v>
       </c>
       <c r="C316">
         <v>0.4092344668695662</v>
@@ -5755,7 +5755,7 @@
         <v>81.61904761904762</v>
       </c>
       <c r="E316">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5772,7 +5772,7 @@
         <v>80</v>
       </c>
       <c r="E317">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5789,7 +5789,7 @@
         <v>80</v>
       </c>
       <c r="E318">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5806,7 +5806,7 @@
         <v>80</v>
       </c>
       <c r="E319">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5823,7 +5823,7 @@
         <v>80</v>
       </c>
       <c r="E320">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5840,7 +5840,7 @@
         <v>80</v>
       </c>
       <c r="E321">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5857,7 +5857,7 @@
         <v>80</v>
       </c>
       <c r="E322">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5874,7 +5874,7 @@
         <v>80</v>
       </c>
       <c r="E323">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5882,7 +5882,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>3.324895289501788</v>
+        <v>3.816040470485583</v>
       </c>
       <c r="C324">
         <v>1.857500214329808</v>
@@ -5891,7 +5891,7 @@
         <v>73.98214285714286</v>
       </c>
       <c r="E324">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5899,7 +5899,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>2.600753207054237</v>
+        <v>2.990832395261866</v>
       </c>
       <c r="C325">
         <v>1.240502695384265</v>
@@ -5908,7 +5908,7 @@
         <v>75.10714285714286</v>
       </c>
       <c r="E325">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5916,7 +5916,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>2.988763774760466</v>
+        <v>3.543071984321887</v>
       </c>
       <c r="C326">
         <v>1.279497616534435</v>
@@ -5925,7 +5925,7 @@
         <v>75.375</v>
       </c>
       <c r="E326">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5933,7 +5933,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>1.49715836113701</v>
+        <v>1.732953760275887</v>
       </c>
       <c r="C327">
         <v>0.8241976861794623</v>
@@ -5942,7 +5942,7 @@
         <v>75.73214285714286</v>
       </c>
       <c r="E327">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5950,7 +5950,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.9295517132687082</v>
+        <v>1.142125296303607</v>
       </c>
       <c r="C328">
         <v>0.3350252367488989</v>
@@ -5959,7 +5959,7 @@
         <v>75.26785714285714</v>
       </c>
       <c r="E328">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5967,7 +5967,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.211905955231916</v>
+        <v>0.2595793556034076</v>
       </c>
       <c r="C329">
         <v>0.07655355135605665</v>
@@ -5976,7 +5976,7 @@
         <v>74.73214285714286</v>
       </c>
       <c r="E329">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5984,7 +5984,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>3.936421075891816</v>
+        <v>4.676493371707148</v>
       </c>
       <c r="C330">
         <v>1.979684679998192</v>
@@ -5993,7 +5993,7 @@
         <v>73.67857142857143</v>
       </c>
       <c r="E330">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6001,7 +6001,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>20.7855911833438</v>
+        <v>22.82613401583652</v>
       </c>
       <c r="C331">
         <v>15.3789034405255</v>
@@ -6010,7 +6010,7 @@
         <v>73.98214285714286</v>
       </c>
       <c r="E331">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6018,7 +6018,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>20.31304405805444</v>
+        <v>22.12900216614604</v>
       </c>
       <c r="C332">
         <v>15.44671625782453</v>
@@ -6027,7 +6027,7 @@
         <v>75.10714285714286</v>
       </c>
       <c r="E332">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6035,7 +6035,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>20.95221415899351</v>
+        <v>22.87564298017052</v>
       </c>
       <c r="C333">
         <v>15.58890325020238</v>
@@ -6044,7 +6044,7 @@
         <v>75.375</v>
       </c>
       <c r="E333">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6052,7 +6052,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>20.35145990117118</v>
+        <v>21.84465820013542</v>
       </c>
       <c r="C334">
         <v>15.99345812564562</v>
@@ -6061,7 +6061,7 @@
         <v>75.73214285714286</v>
       </c>
       <c r="E334">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6069,7 +6069,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>20.46718927825019</v>
+        <v>22.15015511412358</v>
       </c>
       <c r="C335">
         <v>16.13595863333823</v>
@@ -6078,7 +6078,7 @@
         <v>75.17857142857143</v>
       </c>
       <c r="E335">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6086,7 +6086,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>20.07255765072092</v>
+        <v>21.75734930361555</v>
       </c>
       <c r="C336">
         <v>15.73272278549389</v>
@@ -6095,7 +6095,7 @@
         <v>75.44642857142857</v>
       </c>
       <c r="E336">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6103,7 +6103,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>23.47215421844817</v>
+        <v>25.86318802255911</v>
       </c>
       <c r="C337">
         <v>17.46826733389058</v>
@@ -6112,7 +6112,7 @@
         <v>73.67857142857143</v>
       </c>
       <c r="E337">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6129,7 +6129,7 @@
         <v>80</v>
       </c>
       <c r="E338">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6146,7 +6146,7 @@
         <v>80</v>
       </c>
       <c r="E339">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6163,7 +6163,7 @@
         <v>80</v>
       </c>
       <c r="E340">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6180,7 +6180,7 @@
         <v>80</v>
       </c>
       <c r="E341">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6197,7 +6197,7 @@
         <v>80</v>
       </c>
       <c r="E342">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6214,7 +6214,7 @@
         <v>80</v>
       </c>
       <c r="E343">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6231,7 +6231,7 @@
         <v>80</v>
       </c>
       <c r="E344">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6248,7 +6248,7 @@
         <v>80</v>
       </c>
       <c r="E345">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6265,7 +6265,7 @@
         <v>80</v>
       </c>
       <c r="E346">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6282,7 +6282,7 @@
         <v>80</v>
       </c>
       <c r="E347">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6299,7 +6299,7 @@
         <v>80</v>
       </c>
       <c r="E348">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6316,7 +6316,7 @@
         <v>80</v>
       </c>
       <c r="E349">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6333,7 +6333,7 @@
         <v>80</v>
       </c>
       <c r="E350">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6350,7 +6350,7 @@
         <v>80</v>
       </c>
       <c r="E351">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6358,7 +6358,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>15.72795895126319</v>
+        <v>16.99230836948821</v>
       </c>
       <c r="C352">
         <v>11.95237984552115</v>
@@ -6367,7 +6367,7 @@
         <v>73.98214285714286</v>
       </c>
       <c r="E352">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6375,7 +6375,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>16.32918515160636</v>
+        <v>17.8334026881674</v>
       </c>
       <c r="C353">
         <v>11.81420604320879</v>
@@ -6384,7 +6384,7 @@
         <v>75.10714285714286</v>
       </c>
       <c r="E353">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6392,7 +6392,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>13.07260160265059</v>
+        <v>14.41970092594153</v>
       </c>
       <c r="C354">
         <v>9.127668030146316</v>
@@ -6401,7 +6401,7 @@
         <v>75.375</v>
       </c>
       <c r="E354">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6409,7 +6409,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>8.836049453030826</v>
+        <v>9.614217855612145</v>
       </c>
       <c r="C355">
         <v>6.275393056310903</v>
@@ -6418,7 +6418,7 @@
         <v>75.73214285714286</v>
       </c>
       <c r="E355">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6426,7 +6426,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>7.101253918004402</v>
+        <v>8.09975122351371</v>
       </c>
       <c r="C356">
         <v>4.182484961948179</v>
@@ -6435,7 +6435,7 @@
         <v>75.53571428571429</v>
       </c>
       <c r="E356">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6443,7 +6443,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>1.027604608780307</v>
+        <v>1.280407699428334</v>
       </c>
       <c r="C357">
         <v>0.2994083894915101</v>
@@ -6452,7 +6452,7 @@
         <v>76.07142857142857</v>
       </c>
       <c r="E357">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6460,7 +6460,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>22.92817802724717</v>
+        <v>24.58759393751743</v>
       </c>
       <c r="C358">
         <v>18.12390507955949</v>
@@ -6469,7 +6469,7 @@
         <v>73.67857142857143</v>
       </c>
       <c r="E358">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6477,7 +6477,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.6420439717398733</v>
+        <v>0.734281189175032</v>
       </c>
       <c r="C359">
         <v>0.3940958857922148</v>
@@ -6486,7 +6486,7 @@
         <v>73.98214285714286</v>
       </c>
       <c r="E359">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6494,7 +6494,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.3051521629809834</v>
+        <v>0.3392240226891675</v>
       </c>
       <c r="C360">
         <v>0.1827109225481794</v>
@@ -6503,7 +6503,7 @@
         <v>75.10714285714286</v>
       </c>
       <c r="E360">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6511,7 +6511,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.2947483028654154</v>
+        <v>0.3408595417185086</v>
       </c>
       <c r="C361">
         <v>0.1634967937859313</v>
@@ -6520,7 +6520,7 @@
         <v>75.375</v>
       </c>
       <c r="E361">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6528,7 +6528,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.06520206255946256</v>
+        <v>0.07387103165731415</v>
       </c>
       <c r="C362">
         <v>0.03230202022106131</v>
@@ -6537,7 +6537,7 @@
         <v>75.73214285714286</v>
       </c>
       <c r="E362">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6545,7 +6545,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.8004355868860312</v>
+        <v>0.9179818381947211</v>
       </c>
       <c r="C363">
         <v>0.4763399883545506</v>
@@ -6554,7 +6554,7 @@
         <v>73.67857142857143</v>
       </c>
       <c r="E363">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6571,7 +6571,7 @@
         <v>74.55357142857143</v>
       </c>
       <c r="E364">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6588,7 +6588,7 @@
         <v>73.75</v>
       </c>
       <c r="E365">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6605,7 +6605,7 @@
         <v>73.98214285714286</v>
       </c>
       <c r="E366">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6622,7 +6622,7 @@
         <v>75.10714285714286</v>
       </c>
       <c r="E367">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6639,7 +6639,7 @@
         <v>75.375</v>
       </c>
       <c r="E368">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6656,7 +6656,7 @@
         <v>75.73214285714286</v>
       </c>
       <c r="E369">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6673,7 +6673,7 @@
         <v>74.55357142857143</v>
       </c>
       <c r="E370">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6690,7 +6690,7 @@
         <v>73.75</v>
       </c>
       <c r="E371">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6707,7 +6707,7 @@
         <v>73.67857142857143</v>
       </c>
       <c r="E372">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6715,7 +6715,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.9746157918267766</v>
+        <v>1.17311002240522</v>
       </c>
       <c r="C373">
         <v>0.4697457507777064</v>
@@ -6724,7 +6724,7 @@
         <v>73.98214285714286</v>
       </c>
       <c r="E373">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6732,7 +6732,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.6571597290684549</v>
+        <v>0.7901142361292856</v>
       </c>
       <c r="C374">
         <v>0.31197077858806</v>
@@ -6741,7 +6741,7 @@
         <v>75.10714285714286</v>
       </c>
       <c r="E374">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6749,7 +6749,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.5922999654837481</v>
+        <v>0.7180608644345481</v>
       </c>
       <c r="C375">
         <v>0.2632398117944202</v>
@@ -6758,7 +6758,7 @@
         <v>75.375</v>
       </c>
       <c r="E375">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6766,7 +6766,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.09639630220081981</v>
+        <v>0.1114707002946726</v>
       </c>
       <c r="C376">
         <v>0.05034357052279648</v>
@@ -6775,7 +6775,7 @@
         <v>75.73214285714286</v>
       </c>
       <c r="E376">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6783,7 +6783,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.1754366374486439</v>
+        <v>0.209774096677414</v>
       </c>
       <c r="C377">
         <v>0.07999252986984</v>
@@ -6792,7 +6792,7 @@
         <v>74.73214285714286</v>
       </c>
       <c r="E377">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6800,7 +6800,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.05279991747130042</v>
+        <v>0.06306888377128368</v>
       </c>
       <c r="C378">
         <v>0.02397007293157943</v>
@@ -6809,7 +6809,7 @@
         <v>74.91071428571429</v>
       </c>
       <c r="E378">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6817,7 +6817,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>1.123398693247309</v>
+        <v>1.397177496598409</v>
       </c>
       <c r="C379">
         <v>0.438659856274661</v>
@@ -6826,7 +6826,7 @@
         <v>73.67857142857143</v>
       </c>
       <c r="E379">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6843,7 +6843,7 @@
         <v>100</v>
       </c>
       <c r="E380">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6860,7 +6860,7 @@
         <v>100</v>
       </c>
       <c r="E381">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6877,7 +6877,7 @@
         <v>100</v>
       </c>
       <c r="E382">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6894,7 +6894,7 @@
         <v>100</v>
       </c>
       <c r="E383">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6911,7 +6911,7 @@
         <v>100</v>
       </c>
       <c r="E384">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6928,7 +6928,7 @@
         <v>100</v>
       </c>
       <c r="E385">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6936,7 +6936,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>11.37180642022694</v>
+        <v>12.37900266195309</v>
       </c>
       <c r="C386">
         <v>18.99973927517201</v>
@@ -6945,7 +6945,7 @@
         <v>100</v>
       </c>
       <c r="E386">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6953,7 +6953,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>8.997886454371342</v>
+        <v>9.793658843927023</v>
       </c>
       <c r="C387">
         <v>15.02906776959409</v>
@@ -6962,7 +6962,7 @@
         <v>100</v>
       </c>
       <c r="E387">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6970,7 +6970,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>2.780019961710531</v>
+        <v>3.078733888962775</v>
       </c>
       <c r="C388">
         <v>13.70889030780055</v>
@@ -6979,7 +6979,7 @@
         <v>100</v>
       </c>
       <c r="E388">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6987,7 +6987,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>2.140429531620108</v>
+        <v>2.827450228223841</v>
       </c>
       <c r="C389">
         <v>12.478917272974</v>
@@ -6996,7 +6996,7 @@
         <v>100</v>
       </c>
       <c r="E389">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7004,16 +7004,16 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>1.684399837246765</v>
       </c>
       <c r="C390">
-        <v>0</v>
+        <v>10.41540777379616</v>
       </c>
       <c r="D390">
         <v>100</v>
       </c>
       <c r="E390">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7021,7 +7021,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>17.23788062402386</v>
+        <v>18.76392866677513</v>
       </c>
       <c r="C391">
         <v>28.79685309579914</v>
@@ -7030,7 +7030,7 @@
         <v>100</v>
       </c>
       <c r="E391">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7038,7 +7038,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>1.389801685565113</v>
+        <v>1.594042704337426</v>
       </c>
       <c r="C392">
         <v>1.591445897762655</v>
@@ -7047,7 +7047,7 @@
         <v>100</v>
       </c>
       <c r="E392">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7055,7 +7055,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>1.389801685565113</v>
+        <v>1.594042704337426</v>
       </c>
       <c r="C393">
         <v>1.591445897762655</v>
@@ -7064,7 +7064,7 @@
         <v>100</v>
       </c>
       <c r="E393">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7072,16 +7072,16 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0</v>
+        <v>0.9319237520282123</v>
       </c>
       <c r="C394">
-        <v>0</v>
+        <v>0.9075156096115048</v>
       </c>
       <c r="D394">
         <v>100</v>
       </c>
       <c r="E394">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7089,16 +7089,16 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0</v>
+        <v>0.9219595767821817</v>
       </c>
       <c r="C395">
-        <v>0</v>
+        <v>0.919613133862499</v>
       </c>
       <c r="D395">
         <v>100</v>
       </c>
       <c r="E395">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -7106,16 +7106,16 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0</v>
+        <v>0.9219595767821817</v>
       </c>
       <c r="C396">
-        <v>0</v>
+        <v>0.919613133862499</v>
       </c>
       <c r="D396">
         <v>100</v>
       </c>
       <c r="E396">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -7123,7 +7123,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>1.505985604133296</v>
+        <v>1.727330841827221</v>
       </c>
       <c r="C397">
         <v>1.724470085970189</v>
@@ -7132,7 +7132,7 @@
         <v>100</v>
       </c>
       <c r="E397">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7149,7 +7149,7 @@
         <v>100</v>
       </c>
       <c r="E398">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7166,7 +7166,7 @@
         <v>100</v>
       </c>
       <c r="E399">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -7183,7 +7183,7 @@
         <v>100</v>
       </c>
       <c r="E400">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7200,7 +7200,7 @@
         <v>100</v>
       </c>
       <c r="E401">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -7217,7 +7217,7 @@
         <v>100</v>
       </c>
       <c r="E402">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -7234,7 +7234,7 @@
         <v>100</v>
       </c>
       <c r="E403">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7251,7 +7251,7 @@
         <v>100</v>
       </c>
       <c r="E404">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -7268,7 +7268,7 @@
         <v>100</v>
       </c>
       <c r="E405">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -7285,7 +7285,7 @@
         <v>100</v>
       </c>
       <c r="E406">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -7302,7 +7302,7 @@
         <v>100</v>
       </c>
       <c r="E407">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7319,7 +7319,7 @@
         <v>100</v>
       </c>
       <c r="E408">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -7336,7 +7336,7 @@
         <v>100</v>
       </c>
       <c r="E409">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -7344,7 +7344,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.03882082510717925</v>
+        <v>0.03899130341870241</v>
       </c>
       <c r="C410">
         <v>0.06039788986555492</v>
@@ -7353,7 +7353,7 @@
         <v>100</v>
       </c>
       <c r="E410">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7361,7 +7361,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.04238208377958928</v>
+        <v>0.04243749500950311</v>
       </c>
       <c r="C411">
         <v>0.07263551902122622</v>
@@ -7370,7 +7370,7 @@
         <v>100</v>
       </c>
       <c r="E411">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -7378,16 +7378,16 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0</v>
+        <v>0.06524849096213813</v>
       </c>
       <c r="C412">
-        <v>0</v>
+        <v>0.06896774403777875</v>
       </c>
       <c r="D412">
         <v>100</v>
       </c>
       <c r="E412">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7395,16 +7395,16 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0</v>
+        <v>0.04910904591698417</v>
       </c>
       <c r="C413">
-        <v>0</v>
+        <v>0.06149983547863276</v>
       </c>
       <c r="D413">
         <v>100</v>
       </c>
       <c r="E413">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -7412,16 +7412,16 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0</v>
+        <v>0.03224963312174541</v>
       </c>
       <c r="C414">
-        <v>0</v>
+        <v>0.04080302571419215</v>
       </c>
       <c r="D414">
         <v>100</v>
       </c>
       <c r="E414">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7429,7 +7429,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.02374652743967568</v>
+        <v>0.02343083130521251</v>
       </c>
       <c r="C415">
         <v>0.04377297505552598</v>
@@ -7438,7 +7438,7 @@
         <v>100</v>
       </c>
       <c r="E415">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7455,7 +7455,7 @@
         <v>100</v>
       </c>
       <c r="E416">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7472,7 +7472,7 @@
         <v>100</v>
       </c>
       <c r="E417">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -7489,7 +7489,7 @@
         <v>100</v>
       </c>
       <c r="E418">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7506,7 +7506,7 @@
         <v>100</v>
       </c>
       <c r="E419">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7523,7 +7523,7 @@
         <v>100</v>
       </c>
       <c r="E420">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7540,7 +7540,7 @@
         <v>100</v>
       </c>
       <c r="E421">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7557,7 +7557,7 @@
         <v>100</v>
       </c>
       <c r="E422">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7574,7 +7574,7 @@
         <v>100</v>
       </c>
       <c r="E423">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7591,7 +7591,7 @@
         <v>100</v>
       </c>
       <c r="E424">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7608,7 +7608,7 @@
         <v>100</v>
       </c>
       <c r="E425">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7625,7 +7625,7 @@
         <v>100</v>
       </c>
       <c r="E426">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7642,7 +7642,7 @@
         <v>100</v>
       </c>
       <c r="E427">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7650,7 +7650,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>3.842946497800716</v>
+        <v>4.621216819731281</v>
       </c>
       <c r="C428">
         <v>4.228464451815908</v>
@@ -7659,7 +7659,7 @@
         <v>100</v>
       </c>
       <c r="E428">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7667,7 +7667,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>2.04259377213128</v>
+        <v>2.455137406336582</v>
       </c>
       <c r="C429">
         <v>2.243690589763645</v>
@@ -7676,7 +7676,7 @@
         <v>100</v>
       </c>
       <c r="E429">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7684,16 +7684,16 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0</v>
+        <v>0.8863182476620477</v>
       </c>
       <c r="C430">
-        <v>0</v>
+        <v>1.77223346908602</v>
       </c>
       <c r="D430">
         <v>100</v>
       </c>
       <c r="E430">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7701,16 +7701,16 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0</v>
+        <v>0.8033119661454454</v>
       </c>
       <c r="C431">
-        <v>0</v>
+        <v>1.512436635035578</v>
       </c>
       <c r="D431">
         <v>100</v>
       </c>
       <c r="E431">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7718,16 +7718,16 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0</v>
+        <v>0.4726148591922241</v>
       </c>
       <c r="C432">
-        <v>0</v>
+        <v>0.8896957494955207</v>
       </c>
       <c r="D432">
         <v>100</v>
       </c>
       <c r="E432">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7735,7 +7735,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>12.15996161644536</v>
+        <v>14.48488845098466</v>
       </c>
       <c r="C433">
         <v>9.924866434181178</v>
@@ -7744,7 +7744,7 @@
         <v>100</v>
       </c>
       <c r="E433">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7761,7 +7761,7 @@
         <v>100</v>
       </c>
       <c r="E434">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -7778,7 +7778,7 @@
         <v>100</v>
       </c>
       <c r="E435">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7795,7 +7795,7 @@
         <v>100</v>
       </c>
       <c r="E436">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7812,7 +7812,7 @@
         <v>100</v>
       </c>
       <c r="E437">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -7829,7 +7829,7 @@
         <v>100</v>
       </c>
       <c r="E438">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -7846,7 +7846,7 @@
         <v>100</v>
       </c>
       <c r="E439">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -7863,7 +7863,7 @@
         <v>100</v>
       </c>
       <c r="E440">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -7880,7 +7880,7 @@
         <v>100</v>
       </c>
       <c r="E441">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -7897,7 +7897,7 @@
         <v>100</v>
       </c>
       <c r="E442">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -7914,7 +7914,7 @@
         <v>100</v>
       </c>
       <c r="E443">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -7931,7 +7931,7 @@
         <v>100</v>
       </c>
       <c r="E444">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -7948,7 +7948,7 @@
         <v>100</v>
       </c>
       <c r="E445">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -7965,7 +7965,7 @@
         <v>100</v>
       </c>
       <c r="E446">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -7982,7 +7982,7 @@
         <v>100</v>
       </c>
       <c r="E447">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -7990,7 +7990,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.5653749999999989</v>
+        <v>0.6451999999999963</v>
       </c>
       <c r="C448">
         <v>0.7060000000001186</v>
@@ -7999,7 +7999,7 @@
         <v>100</v>
       </c>
       <c r="E448">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -8007,7 +8007,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.5653749999999989</v>
+        <v>0.6451999999999963</v>
       </c>
       <c r="C449">
         <v>0.7060000000001186</v>
@@ -8016,7 +8016,7 @@
         <v>100</v>
       </c>
       <c r="E449">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8024,7 +8024,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.4636074999998123</v>
+        <v>0.5290639999996001</v>
       </c>
       <c r="C450">
         <v>0.578920000006903</v>
@@ -8033,7 +8033,7 @@
         <v>100</v>
       </c>
       <c r="E450">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8041,7 +8041,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.367493750000071</v>
+        <v>0.4193800000001763</v>
       </c>
       <c r="C451">
         <v>0.4589000000008687</v>
@@ -8050,7 +8050,7 @@
         <v>100</v>
       </c>
       <c r="E451">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8058,7 +8058,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.0004720418418001691</v>
+        <v>0.0005246619025011716</v>
       </c>
       <c r="C452">
         <v>0.0001014236649004703</v>
@@ -8067,7 +8067,7 @@
         <v>100</v>
       </c>
       <c r="E452">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8075,7 +8075,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.0004720418418001691</v>
+        <v>0.0005246619025011716</v>
       </c>
       <c r="C453">
         <v>0.0001014236649004703</v>
@@ -8084,7 +8084,7 @@
         <v>100</v>
       </c>
       <c r="E453">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8092,7 +8092,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>1.313099999999996</v>
+        <v>1.396099999999991</v>
       </c>
       <c r="C454">
         <v>1.268100000000792</v>
@@ -8101,7 +8101,7 @@
         <v>100</v>
       </c>
       <c r="E454">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8109,7 +8109,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>8.402000000000021</v>
+        <v>10.17700000000003</v>
       </c>
       <c r="C455">
         <v>3.977000000000728</v>
@@ -8118,7 +8118,7 @@
         <v>100</v>
       </c>
       <c r="E455">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8126,7 +8126,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>5.125219999999957</v>
+        <v>6.207969999999982</v>
       </c>
       <c r="C456">
         <v>2.425970000000722</v>
@@ -8135,7 +8135,7 @@
         <v>100</v>
       </c>
       <c r="E456">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8143,7 +8143,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>4.369039999999958</v>
+        <v>5.292039999999973</v>
       </c>
       <c r="C457">
         <v>2.068040000000677</v>
@@ -8152,7 +8152,7 @@
         <v>100</v>
       </c>
       <c r="E457">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8160,7 +8160,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>2.352559999999566</v>
+        <v>2.849559999999452</v>
       </c>
       <c r="C458">
         <v>1.113560000007005</v>
@@ -8169,7 +8169,7 @@
         <v>100</v>
       </c>
       <c r="E458">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8177,7 +8177,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.4701792383495713</v>
+        <v>0.5082295033997544</v>
       </c>
       <c r="C459">
         <v>0.9182938670972416</v>
@@ -8186,7 +8186,7 @@
         <v>100</v>
       </c>
       <c r="E459">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8194,7 +8194,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.4701792383495713</v>
+        <v>0.5082295033997544</v>
       </c>
       <c r="C460">
         <v>0.9182938670972416</v>
@@ -8203,7 +8203,7 @@
         <v>100</v>
       </c>
       <c r="E460">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8211,7 +8211,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>26.85899999996466</v>
+        <v>31.94100000005177</v>
       </c>
       <c r="C461">
         <v>16.86900000885058</v>
@@ -8220,7 +8220,7 @@
         <v>100</v>
       </c>
       <c r="E461">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8228,7 +8228,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>3.720655775000004</v>
+        <v>4.065417900000012</v>
       </c>
       <c r="C462">
         <v>3.621389900002427</v>
@@ -8237,7 +8237,7 @@
         <v>100</v>
       </c>
       <c r="E462">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8245,7 +8245,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>3.720655775000004</v>
+        <v>4.065417900000012</v>
       </c>
       <c r="C463">
         <v>3.621389900002427</v>
@@ -8254,7 +8254,7 @@
         <v>100</v>
       </c>
       <c r="E463">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8262,7 +8262,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>3.720655775000004</v>
+        <v>4.065417900000012</v>
       </c>
       <c r="C464">
         <v>3.621389900002427</v>
@@ -8271,7 +8271,7 @@
         <v>100</v>
       </c>
       <c r="E464">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8279,7 +8279,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>3.720655775000004</v>
+        <v>4.065417900000012</v>
       </c>
       <c r="C465">
         <v>3.621389900002427</v>
@@ -8288,7 +8288,7 @@
         <v>100</v>
       </c>
       <c r="E465">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -8296,7 +8296,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>3.422398603204888</v>
+        <v>3.786093466062552</v>
       </c>
       <c r="C466">
         <v>3.051838496470399</v>
@@ -8305,7 +8305,7 @@
         <v>100</v>
       </c>
       <c r="E466">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -8313,7 +8313,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>3.422398603204888</v>
+        <v>3.786093466062552</v>
       </c>
       <c r="C467">
         <v>3.051838496470399</v>
@@ -8322,7 +8322,7 @@
         <v>100</v>
       </c>
       <c r="E467">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8330,7 +8330,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>4.093009543749797</v>
+        <v>4.455735589999711</v>
       </c>
       <c r="C468">
         <v>4.06499095073936</v>
@@ -8339,7 +8339,7 @@
         <v>100</v>
       </c>
       <c r="E468">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8347,7 +8347,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>5.418674025005617</v>
+        <v>5.902923900013076</v>
       </c>
       <c r="C469">
         <v>3.276483901680538</v>
@@ -8356,7 +8356,7 @@
         <v>100</v>
       </c>
       <c r="E469">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8364,7 +8364,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>5.418674025005617</v>
+        <v>5.902923900013076</v>
       </c>
       <c r="C470">
         <v>3.276483901680538</v>
@@ -8373,7 +8373,7 @@
         <v>100</v>
       </c>
       <c r="E470">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8381,7 +8381,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>5.418674025005617</v>
+        <v>5.902923900013076</v>
       </c>
       <c r="C471">
         <v>3.276483901680538</v>
@@ -8390,7 +8390,7 @@
         <v>100</v>
       </c>
       <c r="E471">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8398,7 +8398,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>5.418674025005617</v>
+        <v>5.902923900013076</v>
       </c>
       <c r="C472">
         <v>3.276483901680538</v>
@@ -8407,7 +8407,7 @@
         <v>100</v>
       </c>
       <c r="E472">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8415,7 +8415,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>3.0827606208119</v>
+        <v>3.493716455697728</v>
       </c>
       <c r="C473">
         <v>2.089071498242795</v>
@@ -8424,7 +8424,7 @@
         <v>100</v>
       </c>
       <c r="E473">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -8432,7 +8432,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>3.0827606208119</v>
+        <v>3.493716455697728</v>
       </c>
       <c r="C474">
         <v>2.089071498242795</v>
@@ -8441,7 +8441,7 @@
         <v>100</v>
       </c>
       <c r="E474">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -8449,7 +8449,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>4.627896715000071</v>
+        <v>5.04320253999761</v>
       </c>
       <c r="C475">
         <v>2.784464140383028</v>
@@ -8458,7 +8458,7 @@
         <v>100</v>
       </c>
       <c r="E475">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8466,7 +8466,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>1.380075000000003</v>
+        <v>1.484900000000003</v>
       </c>
       <c r="C476">
         <v>1.253700000000007</v>
@@ -8475,7 +8475,7 @@
         <v>100</v>
       </c>
       <c r="E476">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -8483,7 +8483,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>1.380075000000003</v>
+        <v>1.484900000000003</v>
       </c>
       <c r="C477">
         <v>1.253700000000007</v>
@@ -8492,7 +8492,7 @@
         <v>100</v>
       </c>
       <c r="E477">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -8500,7 +8500,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>1.159262999999997</v>
+        <v>1.247315999999996</v>
       </c>
       <c r="C478">
         <v>1.05310800000016</v>
@@ -8509,7 +8509,7 @@
         <v>100</v>
       </c>
       <c r="E478">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8517,7 +8517,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.9384509999999999</v>
+        <v>1.009731999999998</v>
       </c>
       <c r="C479">
         <v>0.8525160000002424</v>
@@ -8526,7 +8526,7 @@
         <v>100</v>
       </c>
       <c r="E479">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8534,7 +8534,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>1.240832744122652</v>
+        <v>1.307166774976923</v>
       </c>
       <c r="C480">
         <v>1.707630559742916</v>
@@ -8543,7 +8543,7 @@
         <v>100</v>
       </c>
       <c r="E480">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8551,7 +8551,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.5478146493404166</v>
+        <v>0.5771004302664461</v>
       </c>
       <c r="C481">
         <v>0.7539006622840289</v>
@@ -8560,7 +8560,7 @@
         <v>100</v>
       </c>
       <c r="E481">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8568,7 +8568,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>2.660899999999992</v>
+        <v>3.07179999999999</v>
       </c>
       <c r="C482">
         <v>1.393400000000026</v>
@@ -8577,7 +8577,7 @@
         <v>100</v>
       </c>
       <c r="E482">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8585,7 +8585,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.4881875000007276</v>
+        <v>0.5162000000013686</v>
       </c>
       <c r="C483">
         <v>0.5210000000135141</v>
@@ -8594,7 +8594,7 @@
         <v>100</v>
       </c>
       <c r="E483">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8602,7 +8602,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.16598375</v>
+        <v>0.1755080000000001</v>
       </c>
       <c r="C484">
         <v>0.1771400000000088</v>
@@ -8611,7 +8611,7 @@
         <v>100</v>
       </c>
       <c r="E484">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8619,7 +8619,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.1025193749999966</v>
+        <v>0.1084020000000108</v>
       </c>
       <c r="C485">
         <v>0.1094100000093198</v>
@@ -8628,7 +8628,7 @@
         <v>100</v>
       </c>
       <c r="E485">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8636,7 +8636,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0.0488187500000011</v>
+        <v>0.0516200000000021</v>
       </c>
       <c r="C486">
         <v>0.05210000000006404</v>
@@ -8645,7 +8645,7 @@
         <v>100</v>
       </c>
       <c r="E486">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -8653,7 +8653,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.02349971234764181</v>
+        <v>0.02549535609573608</v>
       </c>
       <c r="C487">
         <v>0.0120906805384486</v>
@@ -8662,7 +8662,7 @@
         <v>100</v>
       </c>
       <c r="E487">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -8670,7 +8670,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.02349971234764181</v>
+        <v>0.02549535609573608</v>
       </c>
       <c r="C488">
         <v>0.0120906805384486</v>
@@ -8679,7 +8679,7 @@
         <v>100</v>
       </c>
       <c r="E488">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -8687,7 +8687,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>2.402200000000716</v>
+        <v>2.312699999984956</v>
       </c>
       <c r="C489">
         <v>3.744699999998895</v>
@@ -8696,7 +8696,7 @@
         <v>100</v>
       </c>
       <c r="E489">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -8704,7 +8704,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.09920000000000043</v>
+        <v>0.1135000000000012</v>
       </c>
       <c r="C490">
         <v>0.1547000000000463</v>
@@ -8713,7 +8713,7 @@
         <v>100</v>
       </c>
       <c r="E490">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8721,7 +8721,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.09920000000000043</v>
+        <v>0.1135000000000012</v>
       </c>
       <c r="C491">
         <v>0.1547000000000463</v>
@@ -8730,7 +8730,7 @@
         <v>100</v>
       </c>
       <c r="E491">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8738,7 +8738,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.06646399999999969</v>
+        <v>0.07604499999999922</v>
       </c>
       <c r="C492">
         <v>0.1036490000000432</v>
@@ -8747,7 +8747,7 @@
         <v>100</v>
       </c>
       <c r="E492">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8755,7 +8755,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.03471999999999968</v>
+        <v>0.03972499999999963</v>
       </c>
       <c r="C493">
         <v>0.05414500000004324</v>
@@ -8764,7 +8764,7 @@
         <v>100</v>
       </c>
       <c r="E493">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8781,7 +8781,7 @@
         <v>100</v>
       </c>
       <c r="E494">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8798,7 +8798,7 @@
         <v>100</v>
       </c>
       <c r="E495">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8806,7 +8806,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.2813874999999998</v>
+        <v>0.2814599999999998</v>
       </c>
       <c r="C496">
         <v>0.3553000000000173</v>
@@ -8815,7 +8815,7 @@
         <v>100</v>
       </c>
       <c r="E496">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8832,7 +8832,7 @@
         <v>100</v>
       </c>
       <c r="E497">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8849,7 +8849,7 @@
         <v>100</v>
       </c>
       <c r="E498">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8866,7 +8866,7 @@
         <v>100</v>
       </c>
       <c r="E499">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8883,7 +8883,7 @@
         <v>100</v>
       </c>
       <c r="E500">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8900,7 +8900,7 @@
         <v>100</v>
       </c>
       <c r="E501">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -8917,7 +8917,7 @@
         <v>100</v>
       </c>
       <c r="E502">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -8934,7 +8934,7 @@
         <v>100</v>
       </c>
       <c r="E503">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -8951,7 +8951,7 @@
         <v>100</v>
       </c>
       <c r="E504">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -8968,7 +8968,7 @@
         <v>100</v>
       </c>
       <c r="E505">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -8985,7 +8985,7 @@
         <v>100</v>
       </c>
       <c r="E506">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -9002,7 +9002,7 @@
         <v>100</v>
       </c>
       <c r="E507">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -9019,7 +9019,7 @@
         <v>100</v>
       </c>
       <c r="E508">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -9036,7 +9036,7 @@
         <v>100</v>
       </c>
       <c r="E509">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -9053,7 +9053,7 @@
         <v>100</v>
       </c>
       <c r="E510">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -9070,7 +9070,7 @@
         <v>100</v>
       </c>
       <c r="E511">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -9087,7 +9087,7 @@
         <v>100</v>
       </c>
       <c r="E512">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -9104,7 +9104,7 @@
         <v>100</v>
       </c>
       <c r="E513">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -9121,7 +9121,7 @@
         <v>100</v>
       </c>
       <c r="E514">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -9138,7 +9138,7 @@
         <v>100</v>
       </c>
       <c r="E515">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -9155,7 +9155,7 @@
         <v>100</v>
       </c>
       <c r="E516">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -9172,7 +9172,7 @@
         <v>100</v>
       </c>
       <c r="E517">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -9180,7 +9180,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>0.1561374999999205</v>
+        <v>0.1663999999997726</v>
       </c>
       <c r="C518">
         <v>0.1072000000055143</v>
@@ -9189,7 +9189,7 @@
         <v>100</v>
       </c>
       <c r="E518">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -9197,7 +9197,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>0.1561374999999205</v>
+        <v>0.1663999999997726</v>
       </c>
       <c r="C519">
         <v>0.1072000000055143</v>
@@ -9206,7 +9206,7 @@
         <v>100</v>
       </c>
       <c r="E519">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -9214,7 +9214,7 @@
         <v>518</v>
       </c>
       <c r="B520">
-        <v>0.09680525000000041</v>
+        <v>0.1031680000000006</v>
       </c>
       <c r="C520">
         <v>0.06646400000002506</v>
@@ -9223,7 +9223,7 @@
         <v>100</v>
       </c>
       <c r="E520">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -9231,7 +9231,7 @@
         <v>519</v>
       </c>
       <c r="B521">
-        <v>0.03591162500000344</v>
+        <v>0.03827200000000818</v>
       </c>
       <c r="C521">
         <v>0.02465600000004219</v>
@@ -9240,7 +9240,7 @@
         <v>100</v>
       </c>
       <c r="E521">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -9248,7 +9248,7 @@
         <v>520</v>
       </c>
       <c r="B522">
-        <v>0.0002451414751362967</v>
+        <v>0.0002789116391040825</v>
       </c>
       <c r="C522">
         <v>0.000139875159057561</v>
@@ -9257,7 +9257,7 @@
         <v>100</v>
       </c>
       <c r="E522">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -9265,7 +9265,7 @@
         <v>521</v>
       </c>
       <c r="B523">
-        <v>0.0002451414751362967</v>
+        <v>0.0002789116391040825</v>
       </c>
       <c r="C523">
         <v>0.000139875159057561</v>
@@ -9274,7 +9274,7 @@
         <v>100</v>
       </c>
       <c r="E523">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -9282,7 +9282,7 @@
         <v>522</v>
       </c>
       <c r="B524">
-        <v>0.1561374999999205</v>
+        <v>0.1663999999997726</v>
       </c>
       <c r="C524">
         <v>0.1072000000055143</v>
@@ -9291,7 +9291,7 @@
         <v>100</v>
       </c>
       <c r="E524">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -9299,7 +9299,7 @@
         <v>523</v>
       </c>
       <c r="B525">
-        <v>0.320512499999915</v>
+        <v>0.3598799999998533</v>
       </c>
       <c r="C525">
         <v>0.07620000000125786</v>
@@ -9308,7 +9308,7 @@
         <v>100</v>
       </c>
       <c r="E525">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -9316,7 +9316,7 @@
         <v>524</v>
       </c>
       <c r="B526">
-        <v>0.07692299999999982</v>
+        <v>0.0863711999999998</v>
       </c>
       <c r="C526">
         <v>0.01828800000000023</v>
@@ -9325,7 +9325,7 @@
         <v>100</v>
       </c>
       <c r="E526">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -9333,7 +9333,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>0.04487174999999951</v>
+        <v>0.05038319999999916</v>
       </c>
       <c r="C527">
         <v>0.01066800000001578</v>
@@ -9342,7 +9342,7 @@
         <v>100</v>
       </c>
       <c r="E527">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -9350,7 +9350,7 @@
         <v>526</v>
       </c>
       <c r="B528">
-        <v>0.01923074999999999</v>
+        <v>0.0215928</v>
       </c>
       <c r="C528">
         <v>0.00457200000000001</v>
@@ -9359,7 +9359,7 @@
         <v>100</v>
       </c>
       <c r="E528">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -9367,7 +9367,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>0.007241888564485082</v>
+        <v>0.007874539128711652</v>
       </c>
       <c r="C529">
         <v>0.009015157323051172</v>
@@ -9376,7 +9376,7 @@
         <v>100</v>
       </c>
       <c r="E529">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -9384,7 +9384,7 @@
         <v>528</v>
       </c>
       <c r="B530">
-        <v>0.007241888564485082</v>
+        <v>0.007874539128711652</v>
       </c>
       <c r="C530">
         <v>0.009015157323051172</v>
@@ -9393,7 +9393,7 @@
         <v>100</v>
       </c>
       <c r="E530">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -9401,7 +9401,7 @@
         <v>529</v>
       </c>
       <c r="B531">
-        <v>2.971524999999932</v>
+        <v>3.404199999999806</v>
       </c>
       <c r="C531">
         <v>0.5434000000071901</v>
@@ -9410,7 +9410,7 @@
         <v>100</v>
       </c>
       <c r="E531">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -9427,7 +9427,7 @@
         <v>100</v>
       </c>
       <c r="E532">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -9444,7 +9444,7 @@
         <v>100</v>
       </c>
       <c r="E533">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -9461,7 +9461,7 @@
         <v>100</v>
       </c>
       <c r="E534">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -9478,7 +9478,7 @@
         <v>100</v>
       </c>
       <c r="E535">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -9495,7 +9495,7 @@
         <v>100</v>
       </c>
       <c r="E536">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -9512,7 +9512,7 @@
         <v>100</v>
       </c>
       <c r="E537">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -9529,7 +9529,7 @@
         <v>100</v>
       </c>
       <c r="E538">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -9546,7 +9546,7 @@
         <v>100</v>
       </c>
       <c r="E539">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -9563,7 +9563,7 @@
         <v>100</v>
       </c>
       <c r="E540">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -9580,7 +9580,7 @@
         <v>100</v>
       </c>
       <c r="E541">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -9597,7 +9597,7 @@
         <v>100</v>
       </c>
       <c r="E542">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -9614,7 +9614,7 @@
         <v>100</v>
       </c>
       <c r="E543">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -9631,7 +9631,7 @@
         <v>100</v>
       </c>
       <c r="E544">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -9648,7 +9648,7 @@
         <v>100</v>
       </c>
       <c r="E545">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -9656,7 +9656,7 @@
         <v>544</v>
       </c>
       <c r="B546">
-        <v>0.5939121069999996</v>
+        <v>0.6633871069999984</v>
       </c>
       <c r="C546">
         <v>0.2057871070001176</v>
@@ -9665,7 +9665,7 @@
         <v>100</v>
       </c>
       <c r="E546">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -9673,7 +9673,7 @@
         <v>545</v>
       </c>
       <c r="B547">
-        <v>0.519524247999993</v>
+        <v>0.5867917479999869</v>
       </c>
       <c r="C547">
         <v>0.03671174800010855</v>
@@ -9682,7 +9682,7 @@
         <v>100</v>
       </c>
       <c r="E547">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -9690,7 +9690,7 @@
         <v>546</v>
       </c>
       <c r="B548">
-        <v>0.1472713648400005</v>
+        <v>0.1700141025500004</v>
       </c>
       <c r="C548">
         <v>0.01259315171001065</v>
@@ -9699,7 +9699,7 @@
         <v>100</v>
       </c>
       <c r="E548">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -9707,7 +9707,7 @@
         <v>547</v>
       </c>
       <c r="B549">
-        <v>0.1488899818818179</v>
+        <v>0.1823778325435427</v>
       </c>
       <c r="C549">
         <v>0.02173904556164088</v>
@@ -9716,7 +9716,7 @@
         <v>100</v>
       </c>
       <c r="E549">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -9724,7 +9724,7 @@
         <v>548</v>
       </c>
       <c r="B550">
-        <v>0.06475581192931905</v>
+        <v>0.06979837827067008</v>
       </c>
       <c r="C550">
         <v>0.009066349222105568</v>
@@ -9733,7 +9733,7 @@
         <v>100</v>
       </c>
       <c r="E550">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -9741,7 +9741,7 @@
         <v>549</v>
       </c>
       <c r="B551">
-        <v>0.03636156685537621</v>
+        <v>0.03901652659645459</v>
       </c>
       <c r="C551">
         <v>0.01085669961006439</v>
@@ -9750,7 +9750,7 @@
         <v>100</v>
       </c>
       <c r="E551">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -9758,7 +9758,7 @@
         <v>550</v>
       </c>
       <c r="B552">
-        <v>0.8521458879549385</v>
+        <v>0.9687038440424515</v>
       </c>
       <c r="C552">
         <v>0.3843121943058124</v>
@@ -9767,7 +9767,7 @@
         <v>100</v>
       </c>
       <c r="E552">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -9775,7 +9775,7 @@
         <v>551</v>
       </c>
       <c r="B553">
-        <v>2.493270713806536</v>
+        <v>2.940286656091763</v>
       </c>
       <c r="C553">
         <v>1.767153553689387</v>
@@ -9784,7 +9784,7 @@
         <v>100</v>
       </c>
       <c r="E553">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -9792,7 +9792,7 @@
         <v>552</v>
       </c>
       <c r="B554">
-        <v>0.8830194053063353</v>
+        <v>1.042617510296279</v>
       </c>
       <c r="C554">
         <v>0.7485934704216701</v>
@@ -9801,7 +9801,7 @@
         <v>100</v>
       </c>
       <c r="E554">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -9809,7 +9809,7 @@
         <v>553</v>
       </c>
       <c r="B555">
-        <v>0.4893725980989354</v>
+        <v>0.4928028627626139</v>
       </c>
       <c r="C555">
         <v>1.148449020724309</v>
@@ -9818,7 +9818,7 @@
         <v>100</v>
       </c>
       <c r="E555">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -9826,7 +9826,7 @@
         <v>554</v>
       </c>
       <c r="B556">
-        <v>0.1679217652516692</v>
+        <v>0.16047130341613</v>
       </c>
       <c r="C556">
         <v>0.5296786857101314</v>
@@ -9835,7 +9835,7 @@
         <v>100</v>
       </c>
       <c r="E556">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -9843,7 +9843,7 @@
         <v>555</v>
       </c>
       <c r="B557">
-        <v>0.2458759444802709</v>
+        <v>0.2488344990513974</v>
       </c>
       <c r="C557">
         <v>0.4391290199104088</v>
@@ -9852,7 +9852,7 @@
         <v>100</v>
       </c>
       <c r="E557">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -9860,7 +9860,7 @@
         <v>556</v>
       </c>
       <c r="B558">
-        <v>0.2322926857192371</v>
+        <v>0.2371023242810843</v>
       </c>
       <c r="C558">
         <v>0.372747390521339</v>
@@ -9869,7 +9869,7 @@
         <v>100</v>
       </c>
       <c r="E558">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -9877,7 +9877,7 @@
         <v>557</v>
       </c>
       <c r="B559">
-        <v>36.97795210988174</v>
+        <v>42.360103995954</v>
       </c>
       <c r="C559">
         <v>16.20676382576048</v>
@@ -9886,7 +9886,7 @@
         <v>100</v>
       </c>
       <c r="E559">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -9894,7 +9894,7 @@
         <v>558</v>
       </c>
       <c r="B560">
-        <v>2.507121005392793</v>
+        <v>2.783745014669952</v>
       </c>
       <c r="C560">
         <v>2.065501275443285</v>
@@ -9903,7 +9903,7 @@
         <v>100</v>
       </c>
       <c r="E560">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -9911,7 +9911,7 @@
         <v>559</v>
       </c>
       <c r="B561">
-        <v>2.678559476932902</v>
+        <v>2.977916142241422</v>
       </c>
       <c r="C561">
         <v>2.081429502315418</v>
@@ -9920,7 +9920,7 @@
         <v>100</v>
       </c>
       <c r="E561">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -9928,7 +9928,7 @@
         <v>560</v>
       </c>
       <c r="B562">
-        <v>2.480345742672756</v>
+        <v>2.718157050724858</v>
       </c>
       <c r="C562">
         <v>1.945090396556146</v>
@@ -9937,7 +9937,7 @@
         <v>100</v>
       </c>
       <c r="E562">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -9945,7 +9945,7 @@
         <v>561</v>
       </c>
       <c r="B563">
-        <v>2.480345742672756</v>
+        <v>2.718157050724858</v>
       </c>
       <c r="C563">
         <v>1.945090396556146</v>
@@ -9954,7 +9954,7 @@
         <v>100</v>
       </c>
       <c r="E563">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -9962,7 +9962,7 @@
         <v>562</v>
       </c>
       <c r="B564">
-        <v>2.480345742672756</v>
+        <v>2.718157050724858</v>
       </c>
       <c r="C564">
         <v>1.945090396556146</v>
@@ -9971,7 +9971,7 @@
         <v>100</v>
       </c>
       <c r="E564">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -9979,7 +9979,7 @@
         <v>563</v>
       </c>
       <c r="B565">
-        <v>2.480345742672756</v>
+        <v>2.718157050724858</v>
       </c>
       <c r="C565">
         <v>1.945090396556146</v>
@@ -9988,7 +9988,7 @@
         <v>100</v>
       </c>
       <c r="E565">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -9996,7 +9996,7 @@
         <v>564</v>
       </c>
       <c r="B566">
-        <v>3.208059604999996</v>
+        <v>3.518452254999995</v>
       </c>
       <c r="C566">
         <v>2.138549855000124</v>
@@ -10005,7 +10005,7 @@
         <v>100</v>
       </c>
       <c r="E566">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -10013,7 +10013,7 @@
         <v>565</v>
       </c>
       <c r="B567">
-        <v>3.148730956658897</v>
+        <v>3.517539941475727</v>
       </c>
       <c r="C567">
         <v>2.257355564916771</v>
@@ -10022,7 +10022,7 @@
         <v>100</v>
       </c>
       <c r="E567">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -10030,7 +10030,7 @@
         <v>566</v>
       </c>
       <c r="B568">
-        <v>3.124768274150686</v>
+        <v>3.548757583477004</v>
       </c>
       <c r="C568">
         <v>2.136275139943677</v>
@@ -10039,7 +10039,7 @@
         <v>100</v>
       </c>
       <c r="E568">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -10047,7 +10047,7 @@
         <v>567</v>
       </c>
       <c r="B569">
-        <v>3.201468361462882</v>
+        <v>3.595027946115516</v>
       </c>
       <c r="C569">
         <v>2.321600658261324</v>
@@ -10056,7 +10056,7 @@
         <v>100</v>
       </c>
       <c r="E569">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -10064,7 +10064,7 @@
         <v>568</v>
       </c>
       <c r="B570">
-        <v>3.222992673881354</v>
+        <v>3.557180213177439</v>
       </c>
       <c r="C570">
         <v>2.421297991378076</v>
@@ -10073,7 +10073,7 @@
         <v>100</v>
       </c>
       <c r="E570">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -10081,7 +10081,7 @@
         <v>569</v>
       </c>
       <c r="B571">
-        <v>3.222992673881354</v>
+        <v>3.557180213177439</v>
       </c>
       <c r="C571">
         <v>2.421297991378076</v>
@@ -10090,7 +10090,7 @@
         <v>100</v>
       </c>
       <c r="E571">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -10098,7 +10098,7 @@
         <v>570</v>
       </c>
       <c r="B572">
-        <v>3.222992673881354</v>
+        <v>3.557180213177439</v>
       </c>
       <c r="C572">
         <v>2.421297991378076</v>
@@ -10107,7 +10107,7 @@
         <v>100</v>
       </c>
       <c r="E572">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -10115,7 +10115,7 @@
         <v>571</v>
       </c>
       <c r="B573">
-        <v>4.581566992139217</v>
+        <v>5.203173434003864</v>
       </c>
       <c r="C573">
         <v>3.346931478150087</v>
@@ -10124,7 +10124,7 @@
         <v>100</v>
       </c>
       <c r="E573">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -10132,7 +10132,7 @@
         <v>572</v>
       </c>
       <c r="B574">
-        <v>0.7602680183368385</v>
+        <v>0.8669929276930743</v>
       </c>
       <c r="C574">
         <v>0.6638375755034126</v>
@@ -10141,7 +10141,7 @@
         <v>100</v>
       </c>
       <c r="E574">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -10149,7 +10149,7 @@
         <v>573</v>
       </c>
       <c r="B575">
-        <v>0.8380412230326332</v>
+        <v>0.9486278431876531</v>
       </c>
       <c r="C575">
         <v>0.6643317128060768</v>
@@ -10158,7 +10158,7 @@
         <v>100</v>
       </c>
       <c r="E575">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -10166,7 +10166,7 @@
         <v>574</v>
       </c>
       <c r="B576">
-        <v>0.8297914390578244</v>
+        <v>0.9037852084967115</v>
       </c>
       <c r="C576">
         <v>0.7480538094901071</v>
@@ -10175,7 +10175,7 @@
         <v>100</v>
       </c>
       <c r="E576">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -10183,7 +10183,7 @@
         <v>575</v>
       </c>
       <c r="B577">
-        <v>0.6967499999994791</v>
+        <v>0.7641599999992432</v>
       </c>
       <c r="C577">
         <v>0.5760000000031564</v>
@@ -10192,7 +10192,7 @@
         <v>100</v>
       </c>
       <c r="E577">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -10200,7 +10200,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>0.7260270411074552</v>
+        <v>0.7900828325429264</v>
       </c>
       <c r="C578">
         <v>0.5422287715502581</v>
@@ -10209,7 +10209,7 @@
         <v>100</v>
       </c>
       <c r="E578">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -10217,7 +10217,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>0.328052977007455</v>
+        <v>0.3569963797806099</v>
       </c>
       <c r="C579">
         <v>0.2450043216776417</v>
@@ -10226,7 +10226,7 @@
         <v>100</v>
       </c>
       <c r="E579">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -10234,7 +10234,7 @@
         <v>578</v>
       </c>
       <c r="B580">
-        <v>0.6311249999999242</v>
+        <v>0.6783999999998901</v>
       </c>
       <c r="C580">
         <v>0.5280000000007651</v>
@@ -10243,7 +10243,7 @@
         <v>100</v>
       </c>
       <c r="E580">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -10251,7 +10251,7 @@
         <v>579</v>
       </c>
       <c r="B581">
-        <v>0.3332388429999989</v>
+        <v>0.362178843000002</v>
       </c>
       <c r="C581">
         <v>0.4607388430000768</v>
@@ -10260,7 +10260,7 @@
         <v>100</v>
       </c>
       <c r="E581">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -10268,7 +10268,7 @@
         <v>580</v>
       </c>
       <c r="B582">
-        <v>0.1988132899723709</v>
+        <v>0.2190551959958133</v>
       </c>
       <c r="C582">
         <v>0.1794672961175059</v>
@@ -10277,7 +10277,7 @@
         <v>100</v>
       </c>
       <c r="E582">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -10285,7 +10285,7 @@
         <v>581</v>
       </c>
       <c r="B583">
-        <v>0.08305066110964392</v>
+        <v>0.08519673265269867</v>
       </c>
       <c r="C583">
         <v>0.05225793220269805</v>
@@ -10294,7 +10294,7 @@
         <v>100</v>
       </c>
       <c r="E583">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -10302,7 +10302,7 @@
         <v>582</v>
       </c>
       <c r="B584">
-        <v>0.07125258799999927</v>
+        <v>0.07755508799999729</v>
       </c>
       <c r="C584">
         <v>0.01931508800003095</v>
@@ -10311,7 +10311,7 @@
         <v>100</v>
       </c>
       <c r="E584">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -10319,7 +10319,7 @@
         <v>583</v>
       </c>
       <c r="B585">
-        <v>0.03593591405402365</v>
+        <v>0.03937001595292078</v>
       </c>
       <c r="C585">
         <v>0.01356496411016243</v>
@@ -10328,7 +10328,7 @@
         <v>100</v>
       </c>
       <c r="E585">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -10336,7 +10336,7 @@
         <v>584</v>
       </c>
       <c r="B586">
-        <v>0.03593591405402365</v>
+        <v>0.03937001595292078</v>
       </c>
       <c r="C586">
         <v>0.01356496411016243</v>
@@ -10345,7 +10345,7 @@
         <v>100</v>
       </c>
       <c r="E586">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -10353,7 +10353,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>1.877499999999986</v>
+        <v>1.777999999999935</v>
       </c>
       <c r="C587">
         <v>3.130000000004191</v>
@@ -10362,7 +10362,7 @@
         <v>100</v>
       </c>
       <c r="E587">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -10370,7 +10370,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>0.06967228199999882</v>
+        <v>0.07623728199999844</v>
       </c>
       <c r="C588">
         <v>0.106797282000022</v>
@@ -10379,7 +10379,7 @@
         <v>100</v>
       </c>
       <c r="E588">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -10387,7 +10387,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>0.05772500000018961</v>
+        <v>0.06244000000041541</v>
       </c>
       <c r="C589">
         <v>0.0506000000118591</v>
@@ -10396,7 +10396,7 @@
         <v>100</v>
       </c>
       <c r="E589">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -10404,7 +10404,7 @@
         <v>588</v>
       </c>
       <c r="B590">
-        <v>0.03457500000000002</v>
+        <v>0.03714800000000006</v>
       </c>
       <c r="C590">
         <v>0.04470000000000409</v>
@@ -10413,7 +10413,7 @@
         <v>100</v>
       </c>
       <c r="E590">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -10421,7 +10421,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <v>0.03370000000000006</v>
+        <v>0.03561200000000005</v>
       </c>
       <c r="C591">
         <v>0.02590000000000067</v>
@@ -10430,7 +10430,7 @@
         <v>100</v>
       </c>
       <c r="E591">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -10447,7 +10447,7 @@
         <v>100</v>
       </c>
       <c r="E592">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -10464,7 +10464,7 @@
         <v>100</v>
       </c>
       <c r="E593">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -10472,7 +10472,7 @@
         <v>592</v>
       </c>
       <c r="B594">
-        <v>0.2712500000000579</v>
+        <v>0.3012000000001002</v>
       </c>
       <c r="C594">
         <v>0.1700000000005977</v>
@@ -10481,7 +10481,7 @@
         <v>100</v>
       </c>
       <c r="E594">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -10498,7 +10498,7 @@
         <v>100</v>
       </c>
       <c r="E595">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -10515,7 +10515,7 @@
         <v>100</v>
       </c>
       <c r="E596">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -10532,7 +10532,7 @@
         <v>100</v>
       </c>
       <c r="E597">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -10549,7 +10549,7 @@
         <v>100</v>
       </c>
       <c r="E598">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -10566,7 +10566,7 @@
         <v>100</v>
       </c>
       <c r="E599">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -10583,7 +10583,7 @@
         <v>100</v>
       </c>
       <c r="E600">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -10600,7 +10600,7 @@
         <v>100</v>
       </c>
       <c r="E601">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -10617,7 +10617,7 @@
         <v>100</v>
       </c>
       <c r="E602">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -10634,7 +10634,7 @@
         <v>100</v>
       </c>
       <c r="E603">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -10651,7 +10651,7 @@
         <v>100</v>
       </c>
       <c r="E604">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -10668,7 +10668,7 @@
         <v>100</v>
       </c>
       <c r="E605">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -10685,7 +10685,7 @@
         <v>100</v>
       </c>
       <c r="E606">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -10702,7 +10702,7 @@
         <v>100</v>
       </c>
       <c r="E607">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -10719,7 +10719,7 @@
         <v>100</v>
       </c>
       <c r="E608">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -10736,7 +10736,7 @@
         <v>100</v>
       </c>
       <c r="E609">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -10753,7 +10753,7 @@
         <v>100</v>
       </c>
       <c r="E610">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -10770,7 +10770,7 @@
         <v>100</v>
       </c>
       <c r="E611">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -10787,7 +10787,7 @@
         <v>100</v>
       </c>
       <c r="E612">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -10804,7 +10804,7 @@
         <v>100</v>
       </c>
       <c r="E613">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -10821,7 +10821,7 @@
         <v>100</v>
       </c>
       <c r="E614">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -10838,7 +10838,7 @@
         <v>100</v>
       </c>
       <c r="E615">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -10846,7 +10846,7 @@
         <v>614</v>
       </c>
       <c r="B616">
-        <v>0.07442647388658974</v>
+        <v>0.08410776805441347</v>
       </c>
       <c r="C616">
         <v>0.02569967716914561</v>
@@ -10855,7 +10855,7 @@
         <v>100</v>
       </c>
       <c r="E616">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -10863,7 +10863,7 @@
         <v>615</v>
       </c>
       <c r="B617">
-        <v>0.05017776003765254</v>
+        <v>0.05873051908395673</v>
       </c>
       <c r="C617">
         <v>0.01497740978460435</v>
@@ -10872,7 +10872,7 @@
         <v>100</v>
       </c>
       <c r="E617">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -10880,7 +10880,7 @@
         <v>616</v>
       </c>
       <c r="B618">
-        <v>0.0259950783548781</v>
+        <v>0.03052149930029363</v>
       </c>
       <c r="C618">
         <v>0.008698925535189772</v>
@@ -10889,7 +10889,7 @@
         <v>100</v>
       </c>
       <c r="E618">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -10897,7 +10897,7 @@
         <v>617</v>
       </c>
       <c r="B619">
-        <v>0.01940792584751507</v>
+        <v>0.02398834456298302</v>
       </c>
       <c r="C619">
         <v>0.005780997256954062</v>
@@ -10906,7 +10906,7 @@
         <v>100</v>
       </c>
       <c r="E619">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -10914,7 +10914,7 @@
         <v>618</v>
       </c>
       <c r="B620">
-        <v>0.001336642993456939</v>
+        <v>0.001535402329850169</v>
       </c>
       <c r="C620">
         <v>0.0007000405906395364</v>
@@ -10923,7 +10923,7 @@
         <v>100</v>
       </c>
       <c r="E620">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -10931,7 +10931,7 @@
         <v>619</v>
       </c>
       <c r="B621">
-        <v>0.001336642993456939</v>
+        <v>0.001535402329850169</v>
       </c>
       <c r="C621">
         <v>0.0007000405906395364</v>
@@ -10940,7 +10940,7 @@
         <v>100</v>
       </c>
       <c r="E621">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -10948,7 +10948,7 @@
         <v>620</v>
       </c>
       <c r="B622">
-        <v>0.2258553397921694</v>
+        <v>0.2783803729144648</v>
       </c>
       <c r="C622">
         <v>0.0616159553155316</v>
@@ -10957,7 +10957,7 @@
         <v>100</v>
       </c>
       <c r="E622">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -10965,7 +10965,7 @@
         <v>621</v>
       </c>
       <c r="B623">
-        <v>0.2535965844759052</v>
+        <v>0.2997587117256349</v>
       </c>
       <c r="C623">
         <v>0.1104198329788955</v>
@@ -10974,7 +10974,7 @@
         <v>100</v>
       </c>
       <c r="E623">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -10982,7 +10982,7 @@
         <v>622</v>
       </c>
       <c r="B624">
-        <v>0.1067748174286511</v>
+        <v>0.1312487243763092</v>
       </c>
       <c r="C624">
         <v>0.04200660111476572</v>
@@ -10991,7 +10991,7 @@
         <v>100</v>
       </c>
       <c r="E624">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -10999,7 +10999,7 @@
         <v>623</v>
       </c>
       <c r="B625">
-        <v>0.0200560564340711</v>
+        <v>0.02337981760624665</v>
       </c>
       <c r="C625">
         <v>0.025501654884271</v>
@@ -11008,7 +11008,7 @@
         <v>100</v>
       </c>
       <c r="E625">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -11016,7 +11016,7 @@
         <v>624</v>
       </c>
       <c r="B626">
-        <v>0.01148499999999987</v>
+        <v>0.0114595999999999</v>
       </c>
       <c r="C626">
         <v>0.01717000000003328</v>
@@ -11025,7 +11025,7 @@
         <v>100</v>
       </c>
       <c r="E626">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -11033,7 +11033,7 @@
         <v>625</v>
       </c>
       <c r="B627">
-        <v>0.007276444667300973</v>
+        <v>0.007804738864603835</v>
       </c>
       <c r="C627">
         <v>0.006668090978810299</v>
@@ -11042,7 +11042,7 @@
         <v>100</v>
       </c>
       <c r="E627">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -11050,7 +11050,7 @@
         <v>626</v>
       </c>
       <c r="B628">
-        <v>0.007276444667300973</v>
+        <v>0.007804738864603835</v>
       </c>
       <c r="C628">
         <v>0.006668090978810299</v>
@@ -11059,7 +11059,7 @@
         <v>100</v>
       </c>
       <c r="E628">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -11067,7 +11067,7 @@
         <v>627</v>
       </c>
       <c r="B629">
-        <v>3.26016388335275</v>
+        <v>3.805475244030766</v>
       </c>
       <c r="C629">
         <v>1.24745867969047</v>
@@ -11076,7 +11076,7 @@
         <v>100</v>
       </c>
       <c r="E629">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
